--- a/技術者経歴書-呉.xlsx
+++ b/技術者経歴書-呉.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gos103\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B7C020-7E3A-498D-9790-4567B0427691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BA1B6B-49F5-4E84-9B17-9DD254A499A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="194">
   <si>
     <t>技術者経歴書（続き）</t>
   </si>
@@ -680,10 +680,6 @@
 ・社員情報の検索、追加、更新、削除機能の改修
 ・情報確認機能の追加
 ・登録検証コードの追加</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>2022/06</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
@@ -738,14 +734,47 @@
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
+  <si>
+    <t>2021/09</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>2024/03</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>2021/08</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>2021/03</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>2021/02</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>2020/12</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>2020/09</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>2020/11</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>2023/08</t>
+    <phoneticPr fontId="8"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy/mm"/>
-  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2567,586 +2596,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="122" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="122" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="125" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="55" fontId="5" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="55" fontId="5" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3169,11 +2620,609 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="5" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="5" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="122" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="122" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="125" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="6" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3184,156 +3233,157 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3341,40 +3391,19 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3696,8 +3725,8 @@
   </sheetPr>
   <dimension ref="A1:AT52"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A62" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="AU5" sqref="AU5"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="AV5" sqref="AV5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3707,7 +3736,7 @@
     <col min="6" max="24" width="2.08984375" style="58" customWidth="1"/>
     <col min="25" max="25" width="2.90625" style="58" customWidth="1"/>
     <col min="26" max="46" width="2.08984375" style="58" customWidth="1"/>
-    <col min="47" max="16384" width="9" style="249"/>
+    <col min="47" max="16384" width="9" style="62"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:46" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3727,10 +3756,10 @@
       <c r="AD1" s="6"/>
       <c r="AE1" s="6"/>
       <c r="AF1" s="6"/>
-      <c r="AN1" s="231"/>
-      <c r="AO1" s="231"/>
-      <c r="AP1" s="231"/>
-      <c r="AQ1" s="231"/>
+      <c r="AN1" s="84"/>
+      <c r="AO1" s="84"/>
+      <c r="AP1" s="84"/>
+      <c r="AQ1" s="84"/>
       <c r="AT1" s="8" t="s">
         <v>28</v>
       </c>
@@ -3739,45 +3768,45 @@
       <c r="AM2" s="1"/>
       <c r="AN2" s="1"/>
       <c r="AO2" s="9"/>
-      <c r="AP2" s="232"/>
-      <c r="AQ2" s="232"/>
+      <c r="AP2" s="85"/>
+      <c r="AQ2" s="85"/>
       <c r="AR2" s="1"/>
       <c r="AS2" s="9"/>
       <c r="AT2" s="1"/>
     </row>
     <row r="3" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="233" t="s">
+      <c r="B3" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="234"/>
-      <c r="D3" s="234"/>
-      <c r="E3" s="234"/>
-      <c r="F3" s="235" t="s">
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="235"/>
-      <c r="H3" s="235"/>
-      <c r="I3" s="235"/>
-      <c r="J3" s="235"/>
-      <c r="K3" s="235"/>
-      <c r="L3" s="235"/>
-      <c r="M3" s="235"/>
-      <c r="N3" s="235"/>
-      <c r="O3" s="105" t="s">
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105" t="s">
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="89" t="s">
         <v>168</v>
       </c>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
-      <c r="U3" s="105"/>
-      <c r="V3" s="105"/>
-      <c r="W3" s="105"/>
-      <c r="X3" s="105"/>
-      <c r="Y3" s="105"/>
+      <c r="S3" s="89"/>
+      <c r="T3" s="89"/>
+      <c r="U3" s="89"/>
+      <c r="V3" s="89"/>
+      <c r="W3" s="89"/>
+      <c r="X3" s="89"/>
+      <c r="Y3" s="89"/>
       <c r="Z3" s="10" t="s">
         <v>32</v>
       </c>
@@ -3803,235 +3832,235 @@
       <c r="AT3" s="12"/>
     </row>
     <row r="4" spans="2:46" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="240" t="s">
+      <c r="B4" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="152"/>
-      <c r="D4" s="152"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="245" t="s">
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="245"/>
-      <c r="H4" s="245"/>
-      <c r="I4" s="245"/>
-      <c r="J4" s="245"/>
-      <c r="K4" s="245"/>
-      <c r="L4" s="245"/>
-      <c r="M4" s="245"/>
-      <c r="N4" s="245"/>
-      <c r="O4" s="243" t="s">
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="P4" s="243"/>
-      <c r="Q4" s="243"/>
-      <c r="R4" s="236"/>
-      <c r="S4" s="237"/>
-      <c r="T4" s="237"/>
+      <c r="P4" s="98"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="91"/>
+      <c r="T4" s="91"/>
       <c r="U4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="V4" s="237"/>
-      <c r="W4" s="237"/>
+      <c r="V4" s="91"/>
+      <c r="W4" s="91"/>
       <c r="X4" s="13" t="s">
         <v>37</v>
       </c>
       <c r="Y4" s="14"/>
-      <c r="Z4" s="250" t="s">
+      <c r="Z4" s="102" t="s">
         <v>164</v>
       </c>
-      <c r="AA4" s="251"/>
-      <c r="AB4" s="251"/>
-      <c r="AC4" s="251"/>
-      <c r="AD4" s="251"/>
-      <c r="AE4" s="251"/>
-      <c r="AF4" s="251"/>
-      <c r="AG4" s="251"/>
-      <c r="AH4" s="251"/>
-      <c r="AI4" s="251"/>
-      <c r="AJ4" s="251"/>
-      <c r="AK4" s="251"/>
-      <c r="AL4" s="251"/>
-      <c r="AM4" s="251"/>
-      <c r="AN4" s="251"/>
-      <c r="AO4" s="251"/>
-      <c r="AP4" s="251"/>
-      <c r="AQ4" s="251"/>
-      <c r="AR4" s="251"/>
-      <c r="AS4" s="251"/>
-      <c r="AT4" s="252"/>
+      <c r="AA4" s="103"/>
+      <c r="AB4" s="103"/>
+      <c r="AC4" s="103"/>
+      <c r="AD4" s="103"/>
+      <c r="AE4" s="103"/>
+      <c r="AF4" s="103"/>
+      <c r="AG4" s="103"/>
+      <c r="AH4" s="103"/>
+      <c r="AI4" s="103"/>
+      <c r="AJ4" s="103"/>
+      <c r="AK4" s="103"/>
+      <c r="AL4" s="103"/>
+      <c r="AM4" s="103"/>
+      <c r="AN4" s="103"/>
+      <c r="AO4" s="103"/>
+      <c r="AP4" s="103"/>
+      <c r="AQ4" s="103"/>
+      <c r="AR4" s="103"/>
+      <c r="AS4" s="103"/>
+      <c r="AT4" s="104"/>
     </row>
     <row r="5" spans="2:46" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="241"/>
-      <c r="C5" s="242"/>
-      <c r="D5" s="242"/>
-      <c r="E5" s="242"/>
-      <c r="F5" s="246"/>
-      <c r="G5" s="246"/>
-      <c r="H5" s="246"/>
-      <c r="I5" s="246"/>
-      <c r="J5" s="246"/>
-      <c r="K5" s="246"/>
-      <c r="L5" s="246"/>
-      <c r="M5" s="246"/>
-      <c r="N5" s="246"/>
-      <c r="O5" s="244"/>
-      <c r="P5" s="244"/>
-      <c r="Q5" s="244"/>
-      <c r="R5" s="238">
+      <c r="B5" s="96"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="101"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="92">
         <v>25</v>
       </c>
-      <c r="S5" s="239"/>
-      <c r="T5" s="239"/>
-      <c r="U5" s="239"/>
-      <c r="V5" s="239"/>
-      <c r="W5" s="239"/>
+      <c r="S5" s="93"/>
+      <c r="T5" s="93"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="93"/>
       <c r="X5" s="15" t="s">
         <v>38</v>
       </c>
       <c r="Y5" s="4"/>
-      <c r="Z5" s="253"/>
-      <c r="AA5" s="254"/>
-      <c r="AB5" s="254"/>
-      <c r="AC5" s="254"/>
-      <c r="AD5" s="254"/>
-      <c r="AE5" s="254"/>
-      <c r="AF5" s="254"/>
-      <c r="AG5" s="254"/>
-      <c r="AH5" s="254"/>
-      <c r="AI5" s="254"/>
-      <c r="AJ5" s="254"/>
-      <c r="AK5" s="254"/>
-      <c r="AL5" s="254"/>
-      <c r="AM5" s="254"/>
-      <c r="AN5" s="254"/>
-      <c r="AO5" s="254"/>
-      <c r="AP5" s="254"/>
-      <c r="AQ5" s="254"/>
-      <c r="AR5" s="254"/>
-      <c r="AS5" s="254"/>
-      <c r="AT5" s="255"/>
+      <c r="Z5" s="105"/>
+      <c r="AA5" s="106"/>
+      <c r="AB5" s="106"/>
+      <c r="AC5" s="106"/>
+      <c r="AD5" s="106"/>
+      <c r="AE5" s="106"/>
+      <c r="AF5" s="106"/>
+      <c r="AG5" s="106"/>
+      <c r="AH5" s="106"/>
+      <c r="AI5" s="106"/>
+      <c r="AJ5" s="106"/>
+      <c r="AK5" s="106"/>
+      <c r="AL5" s="106"/>
+      <c r="AM5" s="106"/>
+      <c r="AN5" s="106"/>
+      <c r="AO5" s="106"/>
+      <c r="AP5" s="106"/>
+      <c r="AQ5" s="106"/>
+      <c r="AR5" s="106"/>
+      <c r="AS5" s="106"/>
+      <c r="AT5" s="107"/>
     </row>
     <row r="6" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="218" t="s">
+      <c r="B6" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="166"/>
-      <c r="D6" s="166"/>
-      <c r="E6" s="166"/>
-      <c r="F6" s="166"/>
-      <c r="G6" s="166"/>
-      <c r="H6" s="166"/>
-      <c r="I6" s="166"/>
-      <c r="J6" s="166"/>
-      <c r="K6" s="166"/>
-      <c r="L6" s="167"/>
-      <c r="M6" s="165" t="s">
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="N6" s="166"/>
-      <c r="O6" s="166"/>
-      <c r="P6" s="166"/>
-      <c r="Q6" s="167"/>
-      <c r="R6" s="77" t="s">
+      <c r="N6" s="109"/>
+      <c r="O6" s="109"/>
+      <c r="P6" s="109"/>
+      <c r="Q6" s="110"/>
+      <c r="R6" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="S6" s="78"/>
-      <c r="T6" s="78"/>
-      <c r="U6" s="78"/>
-      <c r="V6" s="78"/>
-      <c r="W6" s="78"/>
-      <c r="X6" s="78"/>
-      <c r="Y6" s="78"/>
-      <c r="Z6" s="78"/>
-      <c r="AA6" s="78"/>
-      <c r="AB6" s="78"/>
-      <c r="AC6" s="78"/>
-      <c r="AD6" s="78"/>
-      <c r="AE6" s="78"/>
-      <c r="AF6" s="87"/>
-      <c r="AG6" s="165" t="s">
+      <c r="S6" s="113"/>
+      <c r="T6" s="113"/>
+      <c r="U6" s="113"/>
+      <c r="V6" s="113"/>
+      <c r="W6" s="113"/>
+      <c r="X6" s="113"/>
+      <c r="Y6" s="113"/>
+      <c r="Z6" s="113"/>
+      <c r="AA6" s="113"/>
+      <c r="AB6" s="113"/>
+      <c r="AC6" s="113"/>
+      <c r="AD6" s="113"/>
+      <c r="AE6" s="113"/>
+      <c r="AF6" s="114"/>
+      <c r="AG6" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="AH6" s="166"/>
-      <c r="AI6" s="166"/>
-      <c r="AJ6" s="166"/>
-      <c r="AK6" s="166"/>
-      <c r="AL6" s="166"/>
-      <c r="AM6" s="166"/>
-      <c r="AN6" s="167"/>
-      <c r="AO6" s="166" t="s">
+      <c r="AH6" s="109"/>
+      <c r="AI6" s="109"/>
+      <c r="AJ6" s="109"/>
+      <c r="AK6" s="109"/>
+      <c r="AL6" s="109"/>
+      <c r="AM6" s="109"/>
+      <c r="AN6" s="110"/>
+      <c r="AO6" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="AP6" s="166"/>
-      <c r="AQ6" s="166"/>
-      <c r="AR6" s="166"/>
-      <c r="AS6" s="166"/>
-      <c r="AT6" s="219"/>
+      <c r="AP6" s="109"/>
+      <c r="AQ6" s="109"/>
+      <c r="AR6" s="109"/>
+      <c r="AS6" s="109"/>
+      <c r="AT6" s="115"/>
     </row>
     <row r="7" spans="2:46" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="256" t="s">
+      <c r="B7" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="220"/>
-      <c r="D7" s="220"/>
-      <c r="E7" s="220"/>
-      <c r="F7" s="220"/>
-      <c r="G7" s="220"/>
-      <c r="H7" s="220"/>
-      <c r="I7" s="220"/>
-      <c r="J7" s="220"/>
-      <c r="K7" s="220"/>
-      <c r="L7" s="221"/>
-      <c r="M7" s="222"/>
-      <c r="N7" s="223"/>
-      <c r="O7" s="223"/>
-      <c r="P7" s="223"/>
-      <c r="Q7" s="224"/>
-      <c r="R7" s="225" t="s">
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="118"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="120"/>
+      <c r="O7" s="120"/>
+      <c r="P7" s="120"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="S7" s="226"/>
-      <c r="T7" s="226"/>
-      <c r="U7" s="226"/>
-      <c r="V7" s="226"/>
-      <c r="W7" s="226"/>
-      <c r="X7" s="226"/>
-      <c r="Y7" s="226"/>
-      <c r="Z7" s="226"/>
-      <c r="AA7" s="226"/>
-      <c r="AB7" s="226"/>
-      <c r="AC7" s="226"/>
-      <c r="AD7" s="226"/>
-      <c r="AE7" s="226"/>
-      <c r="AF7" s="227"/>
-      <c r="AG7" s="222">
-        <v>2022.03</v>
-      </c>
-      <c r="AH7" s="228"/>
-      <c r="AI7" s="228"/>
-      <c r="AJ7" s="228"/>
-      <c r="AK7" s="228"/>
-      <c r="AL7" s="228"/>
-      <c r="AM7" s="228"/>
-      <c r="AN7" s="229"/>
-      <c r="AO7" s="222">
-        <v>2027.03</v>
-      </c>
-      <c r="AP7" s="223"/>
-      <c r="AQ7" s="223"/>
-      <c r="AR7" s="223"/>
-      <c r="AS7" s="223"/>
-      <c r="AT7" s="230"/>
+      <c r="S7" s="123"/>
+      <c r="T7" s="123"/>
+      <c r="U7" s="123"/>
+      <c r="V7" s="123"/>
+      <c r="W7" s="123"/>
+      <c r="X7" s="123"/>
+      <c r="Y7" s="123"/>
+      <c r="Z7" s="123"/>
+      <c r="AA7" s="123"/>
+      <c r="AB7" s="123"/>
+      <c r="AC7" s="123"/>
+      <c r="AD7" s="123"/>
+      <c r="AE7" s="123"/>
+      <c r="AF7" s="124"/>
+      <c r="AG7" s="119">
+        <v>2021.03</v>
+      </c>
+      <c r="AH7" s="125"/>
+      <c r="AI7" s="125"/>
+      <c r="AJ7" s="125"/>
+      <c r="AK7" s="125"/>
+      <c r="AL7" s="125"/>
+      <c r="AM7" s="125"/>
+      <c r="AN7" s="126"/>
+      <c r="AO7" s="119">
+        <v>2026.03</v>
+      </c>
+      <c r="AP7" s="120"/>
+      <c r="AQ7" s="120"/>
+      <c r="AR7" s="120"/>
+      <c r="AS7" s="120"/>
+      <c r="AT7" s="127"/>
     </row>
     <row r="8" spans="2:46" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="257" t="s">
+      <c r="B8" s="63" t="s">
         <v>46</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="258"/>
+      <c r="F8" s="64"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
@@ -4061,107 +4090,107 @@
       <c r="AG8" s="17"/>
       <c r="AH8" s="17"/>
       <c r="AI8" s="17"/>
-      <c r="AJ8" s="259"/>
+      <c r="AJ8" s="65"/>
       <c r="AK8" s="17"/>
-      <c r="AL8" s="259"/>
-      <c r="AM8" s="259"/>
-      <c r="AN8" s="259"/>
-      <c r="AO8" s="259"/>
-      <c r="AP8" s="259"/>
-      <c r="AQ8" s="259"/>
-      <c r="AR8" s="259"/>
-      <c r="AS8" s="259"/>
+      <c r="AL8" s="65"/>
+      <c r="AM8" s="65"/>
+      <c r="AN8" s="65"/>
+      <c r="AO8" s="65"/>
+      <c r="AP8" s="65"/>
+      <c r="AQ8" s="65"/>
+      <c r="AR8" s="65"/>
+      <c r="AS8" s="65"/>
       <c r="AT8" s="18" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="249" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="195" t="s">
+      <c r="C9" s="250"/>
+      <c r="D9" s="251"/>
+      <c r="E9" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="196"/>
-      <c r="G9" s="196"/>
-      <c r="H9" s="196"/>
-      <c r="I9" s="197"/>
-      <c r="J9" s="205"/>
-      <c r="K9" s="206"/>
-      <c r="L9" s="195" t="s">
+      <c r="F9" s="130"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="130"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="129"/>
+      <c r="L9" s="139" t="s">
         <v>50</v>
       </c>
-      <c r="M9" s="196"/>
-      <c r="N9" s="196"/>
-      <c r="O9" s="196"/>
-      <c r="P9" s="197"/>
-      <c r="Q9" s="205"/>
-      <c r="R9" s="206"/>
-      <c r="S9" s="195" t="s">
+      <c r="M9" s="130"/>
+      <c r="N9" s="130"/>
+      <c r="O9" s="130"/>
+      <c r="P9" s="131"/>
+      <c r="Q9" s="128"/>
+      <c r="R9" s="129"/>
+      <c r="S9" s="139" t="s">
         <v>51</v>
       </c>
-      <c r="T9" s="196"/>
-      <c r="U9" s="196"/>
-      <c r="V9" s="196"/>
-      <c r="W9" s="197"/>
-      <c r="X9" s="205" t="s">
+      <c r="T9" s="130"/>
+      <c r="U9" s="130"/>
+      <c r="V9" s="130"/>
+      <c r="W9" s="131"/>
+      <c r="X9" s="128" t="s">
         <v>52</v>
       </c>
-      <c r="Y9" s="206"/>
-      <c r="Z9" s="196" t="s">
+      <c r="Y9" s="129"/>
+      <c r="Z9" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="AA9" s="196"/>
-      <c r="AB9" s="196"/>
-      <c r="AC9" s="196"/>
-      <c r="AD9" s="197"/>
-      <c r="AE9" s="205"/>
-      <c r="AF9" s="206"/>
-      <c r="AG9" s="196" t="s">
+      <c r="AA9" s="130"/>
+      <c r="AB9" s="130"/>
+      <c r="AC9" s="130"/>
+      <c r="AD9" s="131"/>
+      <c r="AE9" s="128"/>
+      <c r="AF9" s="129"/>
+      <c r="AG9" s="130" t="s">
         <v>54</v>
       </c>
-      <c r="AH9" s="196"/>
-      <c r="AI9" s="196"/>
-      <c r="AJ9" s="196"/>
-      <c r="AK9" s="197"/>
-      <c r="AL9" s="205"/>
-      <c r="AM9" s="206"/>
-      <c r="AN9" s="196" t="s">
+      <c r="AH9" s="130"/>
+      <c r="AI9" s="130"/>
+      <c r="AJ9" s="130"/>
+      <c r="AK9" s="131"/>
+      <c r="AL9" s="128"/>
+      <c r="AM9" s="129"/>
+      <c r="AN9" s="130" t="s">
         <v>55</v>
       </c>
-      <c r="AO9" s="196"/>
-      <c r="AP9" s="196"/>
-      <c r="AQ9" s="196"/>
-      <c r="AR9" s="197"/>
-      <c r="AS9" s="205"/>
-      <c r="AT9" s="207"/>
+      <c r="AO9" s="130"/>
+      <c r="AP9" s="130"/>
+      <c r="AQ9" s="130"/>
+      <c r="AR9" s="131"/>
+      <c r="AS9" s="128"/>
+      <c r="AT9" s="132"/>
     </row>
     <row r="10" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="65"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="210" t="s">
+      <c r="B10" s="252"/>
+      <c r="C10" s="253"/>
+      <c r="D10" s="254"/>
+      <c r="E10" s="133" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="211"/>
-      <c r="G10" s="211"/>
-      <c r="H10" s="211"/>
-      <c r="I10" s="212"/>
-      <c r="J10" s="209" t="s">
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="135"/>
+      <c r="J10" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="K10" s="173"/>
-      <c r="L10" s="211" t="s">
+      <c r="K10" s="137"/>
+      <c r="L10" s="134" t="s">
         <v>57</v>
       </c>
-      <c r="M10" s="211"/>
-      <c r="N10" s="211"/>
-      <c r="O10" s="211"/>
-      <c r="P10" s="212"/>
-      <c r="Q10" s="209"/>
-      <c r="R10" s="173"/>
+      <c r="M10" s="134"/>
+      <c r="N10" s="134"/>
+      <c r="O10" s="134"/>
+      <c r="P10" s="135"/>
+      <c r="Q10" s="136"/>
+      <c r="R10" s="137"/>
       <c r="S10" s="19" t="s">
         <v>58</v>
       </c>
@@ -4169,8 +4198,8 @@
       <c r="U10" s="20"/>
       <c r="V10" s="20"/>
       <c r="W10" s="21"/>
-      <c r="X10" s="209"/>
-      <c r="Y10" s="173"/>
+      <c r="X10" s="136"/>
+      <c r="Y10" s="137"/>
       <c r="Z10" s="19" t="s">
         <v>59</v>
       </c>
@@ -4178,8 +4207,8 @@
       <c r="AB10" s="20"/>
       <c r="AC10" s="20"/>
       <c r="AD10" s="21"/>
-      <c r="AE10" s="209"/>
-      <c r="AF10" s="173"/>
+      <c r="AE10" s="136"/>
+      <c r="AF10" s="137"/>
       <c r="AG10" s="19" t="s">
         <v>60</v>
       </c>
@@ -4187,1032 +4216,1032 @@
       <c r="AI10" s="20"/>
       <c r="AJ10" s="20"/>
       <c r="AK10" s="21"/>
-      <c r="AL10" s="209"/>
-      <c r="AM10" s="173"/>
+      <c r="AL10" s="136"/>
+      <c r="AM10" s="137"/>
       <c r="AN10" s="20"/>
       <c r="AO10" s="20"/>
       <c r="AP10" s="20"/>
       <c r="AQ10" s="20"/>
       <c r="AR10" s="21"/>
-      <c r="AS10" s="209"/>
-      <c r="AT10" s="213"/>
+      <c r="AS10" s="136"/>
+      <c r="AT10" s="138"/>
     </row>
     <row r="11" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="68"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="200" t="s">
+      <c r="B11" s="255"/>
+      <c r="C11" s="256"/>
+      <c r="D11" s="257"/>
+      <c r="E11" s="149" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="201"/>
-      <c r="G11" s="201"/>
-      <c r="H11" s="201"/>
-      <c r="I11" s="202"/>
-      <c r="J11" s="191"/>
-      <c r="K11" s="192"/>
-      <c r="L11" s="200" t="s">
+      <c r="F11" s="140"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="141"/>
+      <c r="J11" s="142"/>
+      <c r="K11" s="150"/>
+      <c r="L11" s="149" t="s">
         <v>62</v>
       </c>
-      <c r="M11" s="201"/>
-      <c r="N11" s="201"/>
-      <c r="O11" s="201"/>
-      <c r="P11" s="202"/>
-      <c r="Q11" s="191"/>
-      <c r="R11" s="192"/>
-      <c r="S11" s="200" t="s">
+      <c r="M11" s="140"/>
+      <c r="N11" s="140"/>
+      <c r="O11" s="140"/>
+      <c r="P11" s="141"/>
+      <c r="Q11" s="142"/>
+      <c r="R11" s="150"/>
+      <c r="S11" s="149" t="s">
         <v>63</v>
       </c>
-      <c r="T11" s="201"/>
-      <c r="U11" s="201"/>
-      <c r="V11" s="201"/>
-      <c r="W11" s="202"/>
-      <c r="X11" s="191"/>
-      <c r="Y11" s="192"/>
-      <c r="Z11" s="200" t="s">
+      <c r="T11" s="140"/>
+      <c r="U11" s="140"/>
+      <c r="V11" s="140"/>
+      <c r="W11" s="141"/>
+      <c r="X11" s="142"/>
+      <c r="Y11" s="150"/>
+      <c r="Z11" s="149" t="s">
         <v>172</v>
       </c>
-      <c r="AA11" s="201"/>
-      <c r="AB11" s="201"/>
-      <c r="AC11" s="201"/>
-      <c r="AD11" s="202"/>
-      <c r="AE11" s="191" t="s">
+      <c r="AA11" s="140"/>
+      <c r="AB11" s="140"/>
+      <c r="AC11" s="140"/>
+      <c r="AD11" s="141"/>
+      <c r="AE11" s="142" t="s">
         <v>52</v>
       </c>
-      <c r="AF11" s="192"/>
-      <c r="AG11" s="200"/>
-      <c r="AH11" s="201"/>
-      <c r="AI11" s="201"/>
-      <c r="AJ11" s="201"/>
-      <c r="AK11" s="202"/>
-      <c r="AL11" s="209"/>
-      <c r="AM11" s="173"/>
-      <c r="AN11" s="201"/>
-      <c r="AO11" s="201"/>
-      <c r="AP11" s="201"/>
-      <c r="AQ11" s="201"/>
-      <c r="AR11" s="202"/>
-      <c r="AS11" s="191"/>
-      <c r="AT11" s="208"/>
+      <c r="AF11" s="150"/>
+      <c r="AG11" s="149"/>
+      <c r="AH11" s="140"/>
+      <c r="AI11" s="140"/>
+      <c r="AJ11" s="140"/>
+      <c r="AK11" s="141"/>
+      <c r="AL11" s="136"/>
+      <c r="AM11" s="137"/>
+      <c r="AN11" s="140"/>
+      <c r="AO11" s="140"/>
+      <c r="AP11" s="140"/>
+      <c r="AQ11" s="140"/>
+      <c r="AR11" s="141"/>
+      <c r="AS11" s="142"/>
+      <c r="AT11" s="143"/>
     </row>
     <row r="12" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="249" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="195" t="s">
+      <c r="C12" s="250"/>
+      <c r="D12" s="251"/>
+      <c r="E12" s="139" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="196"/>
-      <c r="G12" s="196"/>
-      <c r="H12" s="196"/>
-      <c r="I12" s="197"/>
-      <c r="J12" s="193"/>
-      <c r="K12" s="194"/>
-      <c r="L12" s="195" t="s">
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
+      <c r="J12" s="144"/>
+      <c r="K12" s="145"/>
+      <c r="L12" s="139" t="s">
         <v>66</v>
       </c>
-      <c r="M12" s="196"/>
-      <c r="N12" s="196"/>
-      <c r="O12" s="196"/>
-      <c r="P12" s="197"/>
-      <c r="Q12" s="193"/>
-      <c r="R12" s="194"/>
-      <c r="S12" s="195" t="s">
+      <c r="M12" s="130"/>
+      <c r="N12" s="130"/>
+      <c r="O12" s="130"/>
+      <c r="P12" s="131"/>
+      <c r="Q12" s="144"/>
+      <c r="R12" s="145"/>
+      <c r="S12" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="T12" s="196"/>
-      <c r="U12" s="196"/>
-      <c r="V12" s="196"/>
-      <c r="W12" s="197"/>
-      <c r="X12" s="205"/>
-      <c r="Y12" s="206"/>
-      <c r="Z12" s="195" t="s">
+      <c r="T12" s="130"/>
+      <c r="U12" s="130"/>
+      <c r="V12" s="130"/>
+      <c r="W12" s="131"/>
+      <c r="X12" s="128"/>
+      <c r="Y12" s="129"/>
+      <c r="Z12" s="139" t="s">
         <v>68</v>
       </c>
-      <c r="AA12" s="196"/>
-      <c r="AB12" s="196"/>
-      <c r="AC12" s="196"/>
-      <c r="AD12" s="197"/>
-      <c r="AE12" s="205"/>
-      <c r="AF12" s="206"/>
-      <c r="AG12" s="195" t="s">
+      <c r="AA12" s="130"/>
+      <c r="AB12" s="130"/>
+      <c r="AC12" s="130"/>
+      <c r="AD12" s="131"/>
+      <c r="AE12" s="128"/>
+      <c r="AF12" s="129"/>
+      <c r="AG12" s="139" t="s">
         <v>69</v>
       </c>
-      <c r="AH12" s="196"/>
-      <c r="AI12" s="196"/>
-      <c r="AJ12" s="196"/>
-      <c r="AK12" s="197"/>
-      <c r="AL12" s="205"/>
-      <c r="AM12" s="217"/>
-      <c r="AN12" s="195"/>
-      <c r="AO12" s="196"/>
-      <c r="AP12" s="196"/>
-      <c r="AQ12" s="196"/>
-      <c r="AR12" s="197"/>
-      <c r="AS12" s="198"/>
-      <c r="AT12" s="199"/>
+      <c r="AH12" s="130"/>
+      <c r="AI12" s="130"/>
+      <c r="AJ12" s="130"/>
+      <c r="AK12" s="131"/>
+      <c r="AL12" s="128"/>
+      <c r="AM12" s="146"/>
+      <c r="AN12" s="139"/>
+      <c r="AO12" s="130"/>
+      <c r="AP12" s="130"/>
+      <c r="AQ12" s="130"/>
+      <c r="AR12" s="131"/>
+      <c r="AS12" s="147"/>
+      <c r="AT12" s="148"/>
     </row>
     <row r="13" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="65"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="210" t="s">
+      <c r="B13" s="252"/>
+      <c r="C13" s="253"/>
+      <c r="D13" s="254"/>
+      <c r="E13" s="133" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="211"/>
-      <c r="G13" s="211"/>
-      <c r="H13" s="211"/>
-      <c r="I13" s="212"/>
-      <c r="J13" s="209"/>
-      <c r="K13" s="173"/>
-      <c r="L13" s="210" t="s">
+      <c r="F13" s="134"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="135"/>
+      <c r="J13" s="136"/>
+      <c r="K13" s="137"/>
+      <c r="L13" s="133" t="s">
         <v>71</v>
       </c>
-      <c r="M13" s="211"/>
-      <c r="N13" s="211"/>
-      <c r="O13" s="211"/>
-      <c r="P13" s="212"/>
-      <c r="Q13" s="209"/>
-      <c r="R13" s="173"/>
-      <c r="S13" s="210" t="s">
+      <c r="M13" s="134"/>
+      <c r="N13" s="134"/>
+      <c r="O13" s="134"/>
+      <c r="P13" s="135"/>
+      <c r="Q13" s="136"/>
+      <c r="R13" s="137"/>
+      <c r="S13" s="133" t="s">
         <v>72</v>
       </c>
-      <c r="T13" s="211"/>
-      <c r="U13" s="211"/>
-      <c r="V13" s="211"/>
-      <c r="W13" s="212"/>
-      <c r="X13" s="209"/>
-      <c r="Y13" s="173"/>
-      <c r="Z13" s="210" t="s">
+      <c r="T13" s="134"/>
+      <c r="U13" s="134"/>
+      <c r="V13" s="134"/>
+      <c r="W13" s="135"/>
+      <c r="X13" s="136"/>
+      <c r="Y13" s="137"/>
+      <c r="Z13" s="133" t="s">
         <v>74</v>
       </c>
-      <c r="AA13" s="211"/>
-      <c r="AB13" s="211"/>
-      <c r="AC13" s="211"/>
-      <c r="AD13" s="212"/>
-      <c r="AE13" s="209"/>
-      <c r="AF13" s="173"/>
-      <c r="AG13" s="210" t="s">
+      <c r="AA13" s="134"/>
+      <c r="AB13" s="134"/>
+      <c r="AC13" s="134"/>
+      <c r="AD13" s="135"/>
+      <c r="AE13" s="136"/>
+      <c r="AF13" s="137"/>
+      <c r="AG13" s="133" t="s">
         <v>75</v>
       </c>
-      <c r="AH13" s="211"/>
-      <c r="AI13" s="211"/>
-      <c r="AJ13" s="211"/>
-      <c r="AK13" s="212"/>
-      <c r="AL13" s="209"/>
-      <c r="AM13" s="173"/>
-      <c r="AN13" s="210" t="s">
+      <c r="AH13" s="134"/>
+      <c r="AI13" s="134"/>
+      <c r="AJ13" s="134"/>
+      <c r="AK13" s="135"/>
+      <c r="AL13" s="136"/>
+      <c r="AM13" s="137"/>
+      <c r="AN13" s="133" t="s">
         <v>76</v>
       </c>
-      <c r="AO13" s="211"/>
-      <c r="AP13" s="211"/>
-      <c r="AQ13" s="211"/>
-      <c r="AR13" s="212"/>
-      <c r="AS13" s="209"/>
-      <c r="AT13" s="213"/>
+      <c r="AO13" s="134"/>
+      <c r="AP13" s="134"/>
+      <c r="AQ13" s="134"/>
+      <c r="AR13" s="135"/>
+      <c r="AS13" s="136"/>
+      <c r="AT13" s="138"/>
     </row>
     <row r="14" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="65"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="210" t="s">
+      <c r="B14" s="252"/>
+      <c r="C14" s="253"/>
+      <c r="D14" s="254"/>
+      <c r="E14" s="133" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="211"/>
-      <c r="G14" s="211"/>
-      <c r="H14" s="211"/>
-      <c r="I14" s="212"/>
-      <c r="J14" s="209" t="s">
+      <c r="F14" s="134"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="135"/>
+      <c r="J14" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="K14" s="173"/>
-      <c r="L14" s="210" t="s">
+      <c r="K14" s="137"/>
+      <c r="L14" s="133" t="s">
         <v>78</v>
       </c>
-      <c r="M14" s="211"/>
-      <c r="N14" s="211"/>
-      <c r="O14" s="211"/>
-      <c r="P14" s="212"/>
-      <c r="Q14" s="209"/>
-      <c r="R14" s="173"/>
-      <c r="S14" s="210" t="s">
+      <c r="M14" s="134"/>
+      <c r="N14" s="134"/>
+      <c r="O14" s="134"/>
+      <c r="P14" s="135"/>
+      <c r="Q14" s="136"/>
+      <c r="R14" s="137"/>
+      <c r="S14" s="133" t="s">
         <v>79</v>
       </c>
-      <c r="T14" s="211"/>
-      <c r="U14" s="211"/>
-      <c r="V14" s="211"/>
-      <c r="W14" s="212"/>
-      <c r="X14" s="209"/>
-      <c r="Y14" s="173"/>
-      <c r="Z14" s="210" t="s">
+      <c r="T14" s="134"/>
+      <c r="U14" s="134"/>
+      <c r="V14" s="134"/>
+      <c r="W14" s="135"/>
+      <c r="X14" s="136"/>
+      <c r="Y14" s="137"/>
+      <c r="Z14" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="AA14" s="211"/>
-      <c r="AB14" s="211"/>
-      <c r="AC14" s="211"/>
-      <c r="AD14" s="212"/>
-      <c r="AE14" s="209" t="s">
+      <c r="AA14" s="134"/>
+      <c r="AB14" s="134"/>
+      <c r="AC14" s="134"/>
+      <c r="AD14" s="135"/>
+      <c r="AE14" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="AF14" s="173"/>
-      <c r="AG14" s="210" t="s">
+      <c r="AF14" s="137"/>
+      <c r="AG14" s="133" t="s">
         <v>81</v>
       </c>
-      <c r="AH14" s="211"/>
-      <c r="AI14" s="211"/>
-      <c r="AJ14" s="211"/>
-      <c r="AK14" s="212"/>
-      <c r="AL14" s="209"/>
-      <c r="AM14" s="172"/>
-      <c r="AN14" s="210" t="s">
+      <c r="AH14" s="134"/>
+      <c r="AI14" s="134"/>
+      <c r="AJ14" s="134"/>
+      <c r="AK14" s="135"/>
+      <c r="AL14" s="136"/>
+      <c r="AM14" s="151"/>
+      <c r="AN14" s="133" t="s">
         <v>82</v>
       </c>
-      <c r="AO14" s="211"/>
-      <c r="AP14" s="211"/>
-      <c r="AQ14" s="211"/>
-      <c r="AR14" s="212"/>
-      <c r="AS14" s="209" t="s">
+      <c r="AO14" s="134"/>
+      <c r="AP14" s="134"/>
+      <c r="AQ14" s="134"/>
+      <c r="AR14" s="135"/>
+      <c r="AS14" s="136" t="s">
         <v>73</v>
       </c>
-      <c r="AT14" s="213"/>
+      <c r="AT14" s="138"/>
     </row>
     <row r="15" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="65"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="210" t="s">
+      <c r="B15" s="252"/>
+      <c r="C15" s="253"/>
+      <c r="D15" s="254"/>
+      <c r="E15" s="133" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="211"/>
-      <c r="G15" s="211"/>
-      <c r="H15" s="211"/>
-      <c r="I15" s="212"/>
-      <c r="J15" s="209" t="s">
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="135"/>
+      <c r="J15" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="K15" s="173"/>
-      <c r="L15" s="210" t="s">
+      <c r="K15" s="137"/>
+      <c r="L15" s="133" t="s">
         <v>84</v>
       </c>
-      <c r="M15" s="211"/>
-      <c r="N15" s="211"/>
-      <c r="O15" s="211"/>
-      <c r="P15" s="212"/>
-      <c r="Q15" s="209" t="s">
+      <c r="M15" s="134"/>
+      <c r="N15" s="134"/>
+      <c r="O15" s="134"/>
+      <c r="P15" s="135"/>
+      <c r="Q15" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="R15" s="173"/>
-      <c r="S15" s="210" t="s">
+      <c r="R15" s="137"/>
+      <c r="S15" s="133" t="s">
         <v>85</v>
       </c>
-      <c r="T15" s="211"/>
-      <c r="U15" s="211"/>
-      <c r="V15" s="211"/>
-      <c r="W15" s="212"/>
-      <c r="X15" s="209"/>
-      <c r="Y15" s="173"/>
-      <c r="Z15" s="210" t="s">
+      <c r="T15" s="134"/>
+      <c r="U15" s="134"/>
+      <c r="V15" s="134"/>
+      <c r="W15" s="135"/>
+      <c r="X15" s="136"/>
+      <c r="Y15" s="137"/>
+      <c r="Z15" s="133" t="s">
         <v>86</v>
       </c>
-      <c r="AA15" s="211"/>
-      <c r="AB15" s="211"/>
-      <c r="AC15" s="211"/>
-      <c r="AD15" s="212"/>
-      <c r="AE15" s="209"/>
-      <c r="AF15" s="173"/>
-      <c r="AG15" s="210" t="s">
+      <c r="AA15" s="134"/>
+      <c r="AB15" s="134"/>
+      <c r="AC15" s="134"/>
+      <c r="AD15" s="135"/>
+      <c r="AE15" s="136"/>
+      <c r="AF15" s="137"/>
+      <c r="AG15" s="133" t="s">
         <v>87</v>
       </c>
-      <c r="AH15" s="211"/>
-      <c r="AI15" s="211"/>
-      <c r="AJ15" s="211"/>
-      <c r="AK15" s="212"/>
-      <c r="AL15" s="209"/>
-      <c r="AM15" s="172"/>
-      <c r="AN15" s="210" t="s">
+      <c r="AH15" s="134"/>
+      <c r="AI15" s="134"/>
+      <c r="AJ15" s="134"/>
+      <c r="AK15" s="135"/>
+      <c r="AL15" s="136"/>
+      <c r="AM15" s="151"/>
+      <c r="AN15" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="AO15" s="211"/>
-      <c r="AP15" s="211"/>
-      <c r="AQ15" s="211"/>
-      <c r="AR15" s="212"/>
-      <c r="AS15" s="209"/>
-      <c r="AT15" s="213"/>
+      <c r="AO15" s="134"/>
+      <c r="AP15" s="134"/>
+      <c r="AQ15" s="134"/>
+      <c r="AR15" s="135"/>
+      <c r="AS15" s="136"/>
+      <c r="AT15" s="138"/>
     </row>
     <row r="16" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="65"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="210" t="s">
+      <c r="B16" s="252"/>
+      <c r="C16" s="253"/>
+      <c r="D16" s="254"/>
+      <c r="E16" s="133" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="211"/>
-      <c r="G16" s="211"/>
-      <c r="H16" s="211"/>
-      <c r="I16" s="212"/>
-      <c r="J16" s="209"/>
-      <c r="K16" s="173"/>
-      <c r="L16" s="210" t="s">
+      <c r="F16" s="134"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="136"/>
+      <c r="K16" s="137"/>
+      <c r="L16" s="133" t="s">
         <v>90</v>
       </c>
-      <c r="M16" s="211"/>
-      <c r="N16" s="211"/>
-      <c r="O16" s="211"/>
-      <c r="P16" s="212"/>
-      <c r="Q16" s="209"/>
-      <c r="R16" s="173"/>
-      <c r="S16" s="210" t="s">
+      <c r="M16" s="134"/>
+      <c r="N16" s="134"/>
+      <c r="O16" s="134"/>
+      <c r="P16" s="135"/>
+      <c r="Q16" s="136"/>
+      <c r="R16" s="137"/>
+      <c r="S16" s="133" t="s">
         <v>91</v>
       </c>
-      <c r="T16" s="211"/>
-      <c r="U16" s="211"/>
-      <c r="V16" s="211"/>
-      <c r="W16" s="212"/>
-      <c r="X16" s="209"/>
-      <c r="Y16" s="173"/>
-      <c r="Z16" s="210" t="s">
+      <c r="T16" s="134"/>
+      <c r="U16" s="134"/>
+      <c r="V16" s="134"/>
+      <c r="W16" s="135"/>
+      <c r="X16" s="136"/>
+      <c r="Y16" s="137"/>
+      <c r="Z16" s="133" t="s">
         <v>92</v>
       </c>
-      <c r="AA16" s="211"/>
-      <c r="AB16" s="211"/>
-      <c r="AC16" s="211"/>
-      <c r="AD16" s="212"/>
-      <c r="AE16" s="209"/>
-      <c r="AF16" s="173"/>
-      <c r="AG16" s="210" t="s">
+      <c r="AA16" s="134"/>
+      <c r="AB16" s="134"/>
+      <c r="AC16" s="134"/>
+      <c r="AD16" s="135"/>
+      <c r="AE16" s="136"/>
+      <c r="AF16" s="137"/>
+      <c r="AG16" s="133" t="s">
         <v>93</v>
       </c>
-      <c r="AH16" s="211"/>
-      <c r="AI16" s="211"/>
-      <c r="AJ16" s="211"/>
-      <c r="AK16" s="212"/>
-      <c r="AL16" s="209"/>
-      <c r="AM16" s="172"/>
-      <c r="AN16" s="210" t="s">
+      <c r="AH16" s="134"/>
+      <c r="AI16" s="134"/>
+      <c r="AJ16" s="134"/>
+      <c r="AK16" s="135"/>
+      <c r="AL16" s="136"/>
+      <c r="AM16" s="151"/>
+      <c r="AN16" s="133" t="s">
         <v>94</v>
       </c>
-      <c r="AO16" s="211"/>
-      <c r="AP16" s="211"/>
-      <c r="AQ16" s="211"/>
-      <c r="AR16" s="212"/>
-      <c r="AS16" s="209"/>
-      <c r="AT16" s="213"/>
+      <c r="AO16" s="134"/>
+      <c r="AP16" s="134"/>
+      <c r="AQ16" s="134"/>
+      <c r="AR16" s="135"/>
+      <c r="AS16" s="136"/>
+      <c r="AT16" s="138"/>
     </row>
     <row r="17" spans="1:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="65"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="210" t="s">
+      <c r="B17" s="252"/>
+      <c r="C17" s="253"/>
+      <c r="D17" s="254"/>
+      <c r="E17" s="133" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="211"/>
-      <c r="G17" s="211"/>
-      <c r="H17" s="211"/>
-      <c r="I17" s="212"/>
-      <c r="J17" s="209" t="s">
+      <c r="F17" s="134"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="135"/>
+      <c r="J17" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="K17" s="173"/>
-      <c r="L17" s="210" t="s">
+      <c r="K17" s="137"/>
+      <c r="L17" s="133" t="s">
         <v>96</v>
       </c>
-      <c r="M17" s="211"/>
-      <c r="N17" s="211"/>
-      <c r="O17" s="211"/>
-      <c r="P17" s="212"/>
-      <c r="Q17" s="209"/>
-      <c r="R17" s="173"/>
-      <c r="S17" s="210" t="s">
+      <c r="M17" s="134"/>
+      <c r="N17" s="134"/>
+      <c r="O17" s="134"/>
+      <c r="P17" s="135"/>
+      <c r="Q17" s="136"/>
+      <c r="R17" s="137"/>
+      <c r="S17" s="133" t="s">
         <v>97</v>
       </c>
-      <c r="T17" s="211"/>
-      <c r="U17" s="211"/>
-      <c r="V17" s="211"/>
-      <c r="W17" s="212"/>
-      <c r="X17" s="209" t="s">
+      <c r="T17" s="134"/>
+      <c r="U17" s="134"/>
+      <c r="V17" s="134"/>
+      <c r="W17" s="135"/>
+      <c r="X17" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="Y17" s="173"/>
-      <c r="Z17" s="210" t="s">
+      <c r="Y17" s="137"/>
+      <c r="Z17" s="133" t="s">
         <v>98</v>
       </c>
-      <c r="AA17" s="211"/>
-      <c r="AB17" s="211"/>
-      <c r="AC17" s="211"/>
-      <c r="AD17" s="212"/>
-      <c r="AE17" s="209"/>
-      <c r="AF17" s="173"/>
-      <c r="AG17" s="210" t="s">
+      <c r="AA17" s="134"/>
+      <c r="AB17" s="134"/>
+      <c r="AC17" s="134"/>
+      <c r="AD17" s="135"/>
+      <c r="AE17" s="136"/>
+      <c r="AF17" s="137"/>
+      <c r="AG17" s="133" t="s">
         <v>99</v>
       </c>
-      <c r="AH17" s="211"/>
-      <c r="AI17" s="211"/>
-      <c r="AJ17" s="211"/>
-      <c r="AK17" s="212"/>
-      <c r="AL17" s="209" t="s">
+      <c r="AH17" s="134"/>
+      <c r="AI17" s="134"/>
+      <c r="AJ17" s="134"/>
+      <c r="AK17" s="135"/>
+      <c r="AL17" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="AM17" s="172"/>
-      <c r="AN17" s="210"/>
-      <c r="AO17" s="211"/>
-      <c r="AP17" s="211"/>
-      <c r="AQ17" s="211"/>
-      <c r="AR17" s="212"/>
-      <c r="AS17" s="209"/>
-      <c r="AT17" s="213"/>
+      <c r="AM17" s="151"/>
+      <c r="AN17" s="133"/>
+      <c r="AO17" s="134"/>
+      <c r="AP17" s="134"/>
+      <c r="AQ17" s="134"/>
+      <c r="AR17" s="135"/>
+      <c r="AS17" s="136"/>
+      <c r="AT17" s="138"/>
     </row>
     <row r="18" spans="1:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="65"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="210" t="s">
+      <c r="B18" s="252"/>
+      <c r="C18" s="253"/>
+      <c r="D18" s="254"/>
+      <c r="E18" s="133" t="s">
         <v>100</v>
       </c>
-      <c r="F18" s="211"/>
-      <c r="G18" s="211"/>
-      <c r="H18" s="211"/>
-      <c r="I18" s="212"/>
-      <c r="J18" s="209"/>
-      <c r="K18" s="173"/>
-      <c r="L18" s="210" t="s">
+      <c r="F18" s="134"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="134"/>
+      <c r="I18" s="135"/>
+      <c r="J18" s="136"/>
+      <c r="K18" s="137"/>
+      <c r="L18" s="133" t="s">
         <v>101</v>
       </c>
-      <c r="M18" s="211"/>
-      <c r="N18" s="211"/>
-      <c r="O18" s="211"/>
-      <c r="P18" s="212"/>
-      <c r="Q18" s="209"/>
-      <c r="R18" s="173"/>
-      <c r="S18" s="210" t="s">
+      <c r="M18" s="134"/>
+      <c r="N18" s="134"/>
+      <c r="O18" s="134"/>
+      <c r="P18" s="135"/>
+      <c r="Q18" s="136"/>
+      <c r="R18" s="137"/>
+      <c r="S18" s="133" t="s">
         <v>102</v>
       </c>
-      <c r="T18" s="211"/>
-      <c r="U18" s="211"/>
-      <c r="V18" s="211"/>
-      <c r="W18" s="212"/>
-      <c r="X18" s="209"/>
-      <c r="Y18" s="173"/>
-      <c r="Z18" s="210" t="s">
+      <c r="T18" s="134"/>
+      <c r="U18" s="134"/>
+      <c r="V18" s="134"/>
+      <c r="W18" s="135"/>
+      <c r="X18" s="136"/>
+      <c r="Y18" s="137"/>
+      <c r="Z18" s="133" t="s">
         <v>103</v>
       </c>
-      <c r="AA18" s="211"/>
-      <c r="AB18" s="211"/>
-      <c r="AC18" s="211"/>
-      <c r="AD18" s="212"/>
-      <c r="AE18" s="209" t="s">
+      <c r="AA18" s="134"/>
+      <c r="AB18" s="134"/>
+      <c r="AC18" s="134"/>
+      <c r="AD18" s="135"/>
+      <c r="AE18" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="AF18" s="173"/>
-      <c r="AG18" s="210" t="s">
+      <c r="AF18" s="137"/>
+      <c r="AG18" s="133" t="s">
         <v>104</v>
       </c>
-      <c r="AH18" s="211"/>
-      <c r="AI18" s="211"/>
-      <c r="AJ18" s="211"/>
-      <c r="AK18" s="212"/>
-      <c r="AL18" s="209" t="s">
+      <c r="AH18" s="134"/>
+      <c r="AI18" s="134"/>
+      <c r="AJ18" s="134"/>
+      <c r="AK18" s="135"/>
+      <c r="AL18" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="AM18" s="172"/>
-      <c r="AN18" s="214"/>
-      <c r="AO18" s="215"/>
-      <c r="AP18" s="215"/>
-      <c r="AQ18" s="215"/>
-      <c r="AR18" s="216"/>
-      <c r="AS18" s="203"/>
-      <c r="AT18" s="204"/>
+      <c r="AM18" s="151"/>
+      <c r="AN18" s="152"/>
+      <c r="AO18" s="153"/>
+      <c r="AP18" s="153"/>
+      <c r="AQ18" s="153"/>
+      <c r="AR18" s="154"/>
+      <c r="AS18" s="155"/>
+      <c r="AT18" s="156"/>
     </row>
     <row r="19" spans="1:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="249" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="63"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="195" t="s">
+      <c r="C19" s="250"/>
+      <c r="D19" s="251"/>
+      <c r="E19" s="139" t="s">
         <v>106</v>
       </c>
-      <c r="F19" s="196"/>
-      <c r="G19" s="196"/>
-      <c r="H19" s="196"/>
-      <c r="I19" s="197"/>
-      <c r="J19" s="205" t="s">
+      <c r="F19" s="130"/>
+      <c r="G19" s="130"/>
+      <c r="H19" s="130"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="128" t="s">
         <v>52</v>
       </c>
-      <c r="K19" s="206"/>
-      <c r="L19" s="195" t="s">
+      <c r="K19" s="129"/>
+      <c r="L19" s="139" t="s">
         <v>107</v>
       </c>
-      <c r="M19" s="196"/>
-      <c r="N19" s="196"/>
-      <c r="O19" s="196"/>
-      <c r="P19" s="197"/>
-      <c r="Q19" s="205" t="s">
+      <c r="M19" s="130"/>
+      <c r="N19" s="130"/>
+      <c r="O19" s="130"/>
+      <c r="P19" s="131"/>
+      <c r="Q19" s="128" t="s">
         <v>52</v>
       </c>
-      <c r="R19" s="206"/>
-      <c r="S19" s="195" t="s">
+      <c r="R19" s="129"/>
+      <c r="S19" s="139" t="s">
         <v>108</v>
       </c>
-      <c r="T19" s="196"/>
-      <c r="U19" s="196"/>
-      <c r="V19" s="196"/>
-      <c r="W19" s="197"/>
-      <c r="X19" s="205" t="s">
+      <c r="T19" s="130"/>
+      <c r="U19" s="130"/>
+      <c r="V19" s="130"/>
+      <c r="W19" s="131"/>
+      <c r="X19" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="Y19" s="206"/>
-      <c r="Z19" s="195" t="s">
+      <c r="Y19" s="129"/>
+      <c r="Z19" s="139" t="s">
         <v>109</v>
       </c>
-      <c r="AA19" s="196"/>
-      <c r="AB19" s="196"/>
-      <c r="AC19" s="196"/>
-      <c r="AD19" s="197"/>
-      <c r="AE19" s="205"/>
-      <c r="AF19" s="206"/>
-      <c r="AG19" s="195" t="s">
+      <c r="AA19" s="130"/>
+      <c r="AB19" s="130"/>
+      <c r="AC19" s="130"/>
+      <c r="AD19" s="131"/>
+      <c r="AE19" s="128"/>
+      <c r="AF19" s="129"/>
+      <c r="AG19" s="139" t="s">
         <v>110</v>
       </c>
-      <c r="AH19" s="196"/>
-      <c r="AI19" s="196"/>
-      <c r="AJ19" s="196"/>
-      <c r="AK19" s="197"/>
-      <c r="AL19" s="193"/>
-      <c r="AM19" s="194"/>
-      <c r="AN19" s="195" t="s">
+      <c r="AH19" s="130"/>
+      <c r="AI19" s="130"/>
+      <c r="AJ19" s="130"/>
+      <c r="AK19" s="131"/>
+      <c r="AL19" s="144"/>
+      <c r="AM19" s="145"/>
+      <c r="AN19" s="139" t="s">
         <v>111</v>
       </c>
-      <c r="AO19" s="196"/>
-      <c r="AP19" s="196"/>
-      <c r="AQ19" s="196"/>
-      <c r="AR19" s="197"/>
-      <c r="AS19" s="205" t="s">
+      <c r="AO19" s="130"/>
+      <c r="AP19" s="130"/>
+      <c r="AQ19" s="130"/>
+      <c r="AR19" s="131"/>
+      <c r="AS19" s="128" t="s">
         <v>52</v>
       </c>
-      <c r="AT19" s="207"/>
+      <c r="AT19" s="132"/>
     </row>
     <row r="20" spans="1:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="68"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="200" t="s">
+      <c r="B20" s="255"/>
+      <c r="C20" s="256"/>
+      <c r="D20" s="257"/>
+      <c r="E20" s="149" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="201"/>
-      <c r="G20" s="201"/>
-      <c r="H20" s="201"/>
-      <c r="I20" s="202"/>
-      <c r="J20" s="191"/>
-      <c r="K20" s="192"/>
-      <c r="L20" s="200" t="s">
+      <c r="F20" s="140"/>
+      <c r="G20" s="140"/>
+      <c r="H20" s="140"/>
+      <c r="I20" s="141"/>
+      <c r="J20" s="142"/>
+      <c r="K20" s="150"/>
+      <c r="L20" s="149" t="s">
         <v>113</v>
       </c>
-      <c r="M20" s="201"/>
-      <c r="N20" s="201"/>
-      <c r="O20" s="201"/>
-      <c r="P20" s="202"/>
-      <c r="Q20" s="191"/>
-      <c r="R20" s="192"/>
-      <c r="S20" s="200" t="s">
+      <c r="M20" s="140"/>
+      <c r="N20" s="140"/>
+      <c r="O20" s="140"/>
+      <c r="P20" s="141"/>
+      <c r="Q20" s="142"/>
+      <c r="R20" s="150"/>
+      <c r="S20" s="149" t="s">
         <v>114</v>
       </c>
-      <c r="T20" s="201"/>
-      <c r="U20" s="201"/>
-      <c r="V20" s="201"/>
-      <c r="W20" s="202"/>
-      <c r="X20" s="191"/>
-      <c r="Y20" s="192"/>
-      <c r="Z20" s="200" t="s">
+      <c r="T20" s="140"/>
+      <c r="U20" s="140"/>
+      <c r="V20" s="140"/>
+      <c r="W20" s="141"/>
+      <c r="X20" s="142"/>
+      <c r="Y20" s="150"/>
+      <c r="Z20" s="149" t="s">
         <v>115</v>
       </c>
-      <c r="AA20" s="201"/>
-      <c r="AB20" s="201"/>
-      <c r="AC20" s="201"/>
-      <c r="AD20" s="202"/>
-      <c r="AE20" s="191"/>
-      <c r="AF20" s="192"/>
-      <c r="AG20" s="200"/>
-      <c r="AH20" s="201"/>
-      <c r="AI20" s="201"/>
-      <c r="AJ20" s="201"/>
-      <c r="AK20" s="202"/>
-      <c r="AL20" s="191"/>
-      <c r="AM20" s="192"/>
-      <c r="AN20" s="200"/>
-      <c r="AO20" s="201"/>
-      <c r="AP20" s="201"/>
-      <c r="AQ20" s="201"/>
-      <c r="AR20" s="202"/>
-      <c r="AS20" s="191"/>
-      <c r="AT20" s="208"/>
+      <c r="AA20" s="140"/>
+      <c r="AB20" s="140"/>
+      <c r="AC20" s="140"/>
+      <c r="AD20" s="141"/>
+      <c r="AE20" s="142"/>
+      <c r="AF20" s="150"/>
+      <c r="AG20" s="149"/>
+      <c r="AH20" s="140"/>
+      <c r="AI20" s="140"/>
+      <c r="AJ20" s="140"/>
+      <c r="AK20" s="141"/>
+      <c r="AL20" s="142"/>
+      <c r="AM20" s="150"/>
+      <c r="AN20" s="149"/>
+      <c r="AO20" s="140"/>
+      <c r="AP20" s="140"/>
+      <c r="AQ20" s="140"/>
+      <c r="AR20" s="141"/>
+      <c r="AS20" s="142"/>
+      <c r="AT20" s="143"/>
     </row>
     <row r="21" spans="1:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="258" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="72"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="195" t="s">
+      <c r="C21" s="259"/>
+      <c r="D21" s="260"/>
+      <c r="E21" s="139" t="s">
         <v>117</v>
       </c>
-      <c r="F21" s="196"/>
-      <c r="G21" s="196"/>
-      <c r="H21" s="196"/>
-      <c r="I21" s="197"/>
-      <c r="J21" s="205"/>
-      <c r="K21" s="206"/>
-      <c r="L21" s="195" t="s">
+      <c r="F21" s="130"/>
+      <c r="G21" s="130"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="131"/>
+      <c r="J21" s="128"/>
+      <c r="K21" s="129"/>
+      <c r="L21" s="139" t="s">
         <v>118</v>
       </c>
-      <c r="M21" s="196"/>
-      <c r="N21" s="196"/>
-      <c r="O21" s="196"/>
-      <c r="P21" s="197"/>
-      <c r="Q21" s="205"/>
-      <c r="R21" s="206"/>
-      <c r="S21" s="195" t="s">
+      <c r="M21" s="130"/>
+      <c r="N21" s="130"/>
+      <c r="O21" s="130"/>
+      <c r="P21" s="131"/>
+      <c r="Q21" s="128"/>
+      <c r="R21" s="129"/>
+      <c r="S21" s="139" t="s">
         <v>119</v>
       </c>
-      <c r="T21" s="196"/>
-      <c r="U21" s="196"/>
-      <c r="V21" s="196"/>
-      <c r="W21" s="197"/>
-      <c r="X21" s="205"/>
-      <c r="Y21" s="206"/>
-      <c r="Z21" s="195" t="s">
+      <c r="T21" s="130"/>
+      <c r="U21" s="130"/>
+      <c r="V21" s="130"/>
+      <c r="W21" s="131"/>
+      <c r="X21" s="128"/>
+      <c r="Y21" s="129"/>
+      <c r="Z21" s="139" t="s">
         <v>120</v>
       </c>
-      <c r="AA21" s="196"/>
-      <c r="AB21" s="196"/>
-      <c r="AC21" s="196"/>
-      <c r="AD21" s="197"/>
-      <c r="AE21" s="205"/>
-      <c r="AF21" s="206"/>
-      <c r="AG21" s="195" t="s">
+      <c r="AA21" s="130"/>
+      <c r="AB21" s="130"/>
+      <c r="AC21" s="130"/>
+      <c r="AD21" s="131"/>
+      <c r="AE21" s="128"/>
+      <c r="AF21" s="129"/>
+      <c r="AG21" s="139" t="s">
         <v>121</v>
       </c>
-      <c r="AH21" s="196"/>
-      <c r="AI21" s="196"/>
-      <c r="AJ21" s="196"/>
-      <c r="AK21" s="197"/>
-      <c r="AL21" s="193"/>
-      <c r="AM21" s="194"/>
-      <c r="AN21" s="195" t="s">
+      <c r="AH21" s="130"/>
+      <c r="AI21" s="130"/>
+      <c r="AJ21" s="130"/>
+      <c r="AK21" s="131"/>
+      <c r="AL21" s="144"/>
+      <c r="AM21" s="145"/>
+      <c r="AN21" s="139" t="s">
         <v>122</v>
       </c>
-      <c r="AO21" s="196"/>
-      <c r="AP21" s="196"/>
-      <c r="AQ21" s="196"/>
-      <c r="AR21" s="197"/>
-      <c r="AS21" s="198"/>
-      <c r="AT21" s="199"/>
+      <c r="AO21" s="130"/>
+      <c r="AP21" s="130"/>
+      <c r="AQ21" s="130"/>
+      <c r="AR21" s="131"/>
+      <c r="AS21" s="147"/>
+      <c r="AT21" s="148"/>
     </row>
     <row r="22" spans="1:46" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="74"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="200" t="s">
+      <c r="B22" s="261"/>
+      <c r="C22" s="262"/>
+      <c r="D22" s="263"/>
+      <c r="E22" s="149" t="s">
         <v>123</v>
       </c>
-      <c r="F22" s="201"/>
-      <c r="G22" s="201"/>
-      <c r="H22" s="201"/>
-      <c r="I22" s="202"/>
-      <c r="J22" s="191"/>
-      <c r="K22" s="192"/>
-      <c r="L22" s="200" t="s">
+      <c r="F22" s="140"/>
+      <c r="G22" s="140"/>
+      <c r="H22" s="140"/>
+      <c r="I22" s="141"/>
+      <c r="J22" s="142"/>
+      <c r="K22" s="150"/>
+      <c r="L22" s="149" t="s">
         <v>124</v>
       </c>
-      <c r="M22" s="201"/>
-      <c r="N22" s="201"/>
-      <c r="O22" s="201"/>
-      <c r="P22" s="202"/>
-      <c r="Q22" s="191" t="s">
+      <c r="M22" s="140"/>
+      <c r="N22" s="140"/>
+      <c r="O22" s="140"/>
+      <c r="P22" s="141"/>
+      <c r="Q22" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="R22" s="192"/>
-      <c r="S22" s="200"/>
-      <c r="T22" s="201"/>
-      <c r="U22" s="201"/>
-      <c r="V22" s="201"/>
-      <c r="W22" s="202"/>
-      <c r="X22" s="191"/>
-      <c r="Y22" s="192"/>
-      <c r="Z22" s="200"/>
-      <c r="AA22" s="201"/>
-      <c r="AB22" s="201"/>
-      <c r="AC22" s="201"/>
-      <c r="AD22" s="202"/>
-      <c r="AE22" s="191"/>
-      <c r="AF22" s="192"/>
-      <c r="AG22" s="200"/>
-      <c r="AH22" s="201"/>
-      <c r="AI22" s="201"/>
-      <c r="AJ22" s="201"/>
-      <c r="AK22" s="202"/>
-      <c r="AL22" s="191"/>
-      <c r="AM22" s="192"/>
-      <c r="AN22" s="200"/>
-      <c r="AO22" s="201"/>
-      <c r="AP22" s="201"/>
-      <c r="AQ22" s="201"/>
-      <c r="AR22" s="202"/>
-      <c r="AS22" s="203"/>
-      <c r="AT22" s="204"/>
+      <c r="R22" s="150"/>
+      <c r="S22" s="149"/>
+      <c r="T22" s="140"/>
+      <c r="U22" s="140"/>
+      <c r="V22" s="140"/>
+      <c r="W22" s="141"/>
+      <c r="X22" s="142"/>
+      <c r="Y22" s="150"/>
+      <c r="Z22" s="149"/>
+      <c r="AA22" s="140"/>
+      <c r="AB22" s="140"/>
+      <c r="AC22" s="140"/>
+      <c r="AD22" s="141"/>
+      <c r="AE22" s="142"/>
+      <c r="AF22" s="150"/>
+      <c r="AG22" s="149"/>
+      <c r="AH22" s="140"/>
+      <c r="AI22" s="140"/>
+      <c r="AJ22" s="140"/>
+      <c r="AK22" s="141"/>
+      <c r="AL22" s="142"/>
+      <c r="AM22" s="150"/>
+      <c r="AN22" s="149"/>
+      <c r="AO22" s="140"/>
+      <c r="AP22" s="140"/>
+      <c r="AQ22" s="140"/>
+      <c r="AR22" s="141"/>
+      <c r="AS22" s="155"/>
+      <c r="AT22" s="156"/>
     </row>
     <row r="23" spans="1:46" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="188" t="s">
+      <c r="B23" s="157" t="s">
         <v>125</v>
       </c>
-      <c r="C23" s="189"/>
-      <c r="D23" s="190"/>
-      <c r="E23" s="178" t="s">
+      <c r="C23" s="158"/>
+      <c r="D23" s="159"/>
+      <c r="E23" s="160" t="s">
         <v>126</v>
       </c>
-      <c r="F23" s="179"/>
-      <c r="G23" s="179"/>
-      <c r="H23" s="179"/>
-      <c r="I23" s="180"/>
-      <c r="J23" s="191"/>
-      <c r="K23" s="192"/>
-      <c r="L23" s="178" t="s">
+      <c r="F23" s="161"/>
+      <c r="G23" s="161"/>
+      <c r="H23" s="161"/>
+      <c r="I23" s="162"/>
+      <c r="J23" s="142"/>
+      <c r="K23" s="150"/>
+      <c r="L23" s="160" t="s">
         <v>127</v>
       </c>
-      <c r="M23" s="179"/>
-      <c r="N23" s="179"/>
-      <c r="O23" s="179"/>
-      <c r="P23" s="180"/>
-      <c r="Q23" s="191"/>
-      <c r="R23" s="192"/>
-      <c r="S23" s="178" t="s">
+      <c r="M23" s="161"/>
+      <c r="N23" s="161"/>
+      <c r="O23" s="161"/>
+      <c r="P23" s="162"/>
+      <c r="Q23" s="142"/>
+      <c r="R23" s="150"/>
+      <c r="S23" s="160" t="s">
         <v>165</v>
       </c>
-      <c r="T23" s="179"/>
-      <c r="U23" s="179"/>
-      <c r="V23" s="179"/>
-      <c r="W23" s="180"/>
-      <c r="X23" s="205" t="s">
+      <c r="T23" s="161"/>
+      <c r="U23" s="161"/>
+      <c r="V23" s="161"/>
+      <c r="W23" s="162"/>
+      <c r="X23" s="128" t="s">
         <v>52</v>
       </c>
-      <c r="Y23" s="207"/>
-      <c r="Z23" s="178"/>
-      <c r="AA23" s="179"/>
-      <c r="AB23" s="179"/>
-      <c r="AC23" s="179"/>
-      <c r="AD23" s="180"/>
-      <c r="AE23" s="191"/>
-      <c r="AF23" s="192"/>
-      <c r="AG23" s="178"/>
-      <c r="AH23" s="179"/>
-      <c r="AI23" s="179"/>
-      <c r="AJ23" s="179"/>
-      <c r="AK23" s="180"/>
-      <c r="AL23" s="181"/>
-      <c r="AM23" s="182"/>
-      <c r="AN23" s="178"/>
-      <c r="AO23" s="179"/>
-      <c r="AP23" s="179"/>
-      <c r="AQ23" s="179"/>
-      <c r="AR23" s="180"/>
-      <c r="AS23" s="181"/>
-      <c r="AT23" s="183"/>
+      <c r="Y23" s="132"/>
+      <c r="Z23" s="160"/>
+      <c r="AA23" s="161"/>
+      <c r="AB23" s="161"/>
+      <c r="AC23" s="161"/>
+      <c r="AD23" s="162"/>
+      <c r="AE23" s="142"/>
+      <c r="AF23" s="150"/>
+      <c r="AG23" s="160"/>
+      <c r="AH23" s="161"/>
+      <c r="AI23" s="161"/>
+      <c r="AJ23" s="161"/>
+      <c r="AK23" s="162"/>
+      <c r="AL23" s="182"/>
+      <c r="AM23" s="183"/>
+      <c r="AN23" s="160"/>
+      <c r="AO23" s="161"/>
+      <c r="AP23" s="161"/>
+      <c r="AQ23" s="161"/>
+      <c r="AR23" s="162"/>
+      <c r="AS23" s="182"/>
+      <c r="AT23" s="184"/>
     </row>
     <row r="24" spans="1:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="71" t="s">
+      <c r="B24" s="258" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="72"/>
-      <c r="D24" s="73"/>
+      <c r="C24" s="259"/>
+      <c r="D24" s="260"/>
       <c r="E24" s="22"/>
-      <c r="F24" s="184"/>
-      <c r="G24" s="184"/>
-      <c r="H24" s="184"/>
-      <c r="I24" s="184"/>
-      <c r="J24" s="184"/>
-      <c r="K24" s="184"/>
-      <c r="L24" s="184"/>
-      <c r="M24" s="184"/>
-      <c r="N24" s="184"/>
-      <c r="O24" s="184"/>
-      <c r="P24" s="184"/>
-      <c r="Q24" s="184"/>
-      <c r="R24" s="184"/>
-      <c r="S24" s="184"/>
-      <c r="T24" s="184"/>
-      <c r="U24" s="184"/>
-      <c r="V24" s="184"/>
-      <c r="W24" s="184"/>
-      <c r="X24" s="184"/>
-      <c r="Y24" s="184"/>
-      <c r="Z24" s="184"/>
-      <c r="AA24" s="184"/>
-      <c r="AB24" s="184"/>
-      <c r="AC24" s="184"/>
-      <c r="AD24" s="184"/>
-      <c r="AE24" s="184"/>
-      <c r="AF24" s="184"/>
-      <c r="AG24" s="184"/>
-      <c r="AH24" s="184"/>
-      <c r="AI24" s="184"/>
-      <c r="AJ24" s="184"/>
-      <c r="AK24" s="184"/>
-      <c r="AL24" s="184"/>
-      <c r="AM24" s="184"/>
-      <c r="AN24" s="184"/>
-      <c r="AO24" s="184"/>
-      <c r="AP24" s="184"/>
-      <c r="AQ24" s="184"/>
-      <c r="AR24" s="184"/>
-      <c r="AS24" s="184"/>
+      <c r="F24" s="185"/>
+      <c r="G24" s="185"/>
+      <c r="H24" s="185"/>
+      <c r="I24" s="185"/>
+      <c r="J24" s="185"/>
+      <c r="K24" s="185"/>
+      <c r="L24" s="185"/>
+      <c r="M24" s="185"/>
+      <c r="N24" s="185"/>
+      <c r="O24" s="185"/>
+      <c r="P24" s="185"/>
+      <c r="Q24" s="185"/>
+      <c r="R24" s="185"/>
+      <c r="S24" s="185"/>
+      <c r="T24" s="185"/>
+      <c r="U24" s="185"/>
+      <c r="V24" s="185"/>
+      <c r="W24" s="185"/>
+      <c r="X24" s="185"/>
+      <c r="Y24" s="185"/>
+      <c r="Z24" s="185"/>
+      <c r="AA24" s="185"/>
+      <c r="AB24" s="185"/>
+      <c r="AC24" s="185"/>
+      <c r="AD24" s="185"/>
+      <c r="AE24" s="185"/>
+      <c r="AF24" s="185"/>
+      <c r="AG24" s="185"/>
+      <c r="AH24" s="185"/>
+      <c r="AI24" s="185"/>
+      <c r="AJ24" s="185"/>
+      <c r="AK24" s="185"/>
+      <c r="AL24" s="185"/>
+      <c r="AM24" s="185"/>
+      <c r="AN24" s="185"/>
+      <c r="AO24" s="185"/>
+      <c r="AP24" s="185"/>
+      <c r="AQ24" s="185"/>
+      <c r="AR24" s="185"/>
+      <c r="AS24" s="185"/>
       <c r="AT24" s="23"/>
     </row>
     <row r="25" spans="1:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="83"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="85"/>
+      <c r="B25" s="268"/>
+      <c r="C25" s="269"/>
+      <c r="D25" s="270"/>
       <c r="E25" s="24"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="123"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="123"/>
-      <c r="J25" s="123"/>
-      <c r="K25" s="123"/>
-      <c r="L25" s="123"/>
-      <c r="M25" s="123"/>
-      <c r="N25" s="123"/>
-      <c r="O25" s="123"/>
-      <c r="P25" s="123"/>
-      <c r="Q25" s="123"/>
-      <c r="R25" s="123"/>
-      <c r="S25" s="123"/>
-      <c r="T25" s="123"/>
-      <c r="U25" s="123"/>
-      <c r="V25" s="123"/>
-      <c r="W25" s="123"/>
-      <c r="X25" s="123"/>
-      <c r="Y25" s="123"/>
-      <c r="Z25" s="123"/>
-      <c r="AA25" s="123"/>
-      <c r="AB25" s="123"/>
-      <c r="AC25" s="123"/>
-      <c r="AD25" s="123"/>
-      <c r="AE25" s="123"/>
-      <c r="AF25" s="123"/>
-      <c r="AG25" s="123"/>
-      <c r="AH25" s="123"/>
-      <c r="AI25" s="123"/>
-      <c r="AJ25" s="123"/>
-      <c r="AK25" s="123"/>
-      <c r="AL25" s="123"/>
-      <c r="AM25" s="123"/>
-      <c r="AN25" s="123"/>
-      <c r="AO25" s="123"/>
-      <c r="AP25" s="123"/>
-      <c r="AQ25" s="123"/>
-      <c r="AR25" s="123"/>
-      <c r="AS25" s="123"/>
+      <c r="F25" s="186"/>
+      <c r="G25" s="186"/>
+      <c r="H25" s="186"/>
+      <c r="I25" s="186"/>
+      <c r="J25" s="186"/>
+      <c r="K25" s="186"/>
+      <c r="L25" s="186"/>
+      <c r="M25" s="186"/>
+      <c r="N25" s="186"/>
+      <c r="O25" s="186"/>
+      <c r="P25" s="186"/>
+      <c r="Q25" s="186"/>
+      <c r="R25" s="186"/>
+      <c r="S25" s="186"/>
+      <c r="T25" s="186"/>
+      <c r="U25" s="186"/>
+      <c r="V25" s="186"/>
+      <c r="W25" s="186"/>
+      <c r="X25" s="186"/>
+      <c r="Y25" s="186"/>
+      <c r="Z25" s="186"/>
+      <c r="AA25" s="186"/>
+      <c r="AB25" s="186"/>
+      <c r="AC25" s="186"/>
+      <c r="AD25" s="186"/>
+      <c r="AE25" s="186"/>
+      <c r="AF25" s="186"/>
+      <c r="AG25" s="186"/>
+      <c r="AH25" s="186"/>
+      <c r="AI25" s="186"/>
+      <c r="AJ25" s="186"/>
+      <c r="AK25" s="186"/>
+      <c r="AL25" s="186"/>
+      <c r="AM25" s="186"/>
+      <c r="AN25" s="186"/>
+      <c r="AO25" s="186"/>
+      <c r="AP25" s="186"/>
+      <c r="AQ25" s="186"/>
+      <c r="AR25" s="186"/>
+      <c r="AS25" s="186"/>
       <c r="AT25" s="25"/>
     </row>
     <row r="26" spans="1:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="83"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="85"/>
+      <c r="B26" s="268"/>
+      <c r="C26" s="269"/>
+      <c r="D26" s="270"/>
       <c r="E26" s="24"/>
-      <c r="F26" s="185"/>
-      <c r="G26" s="123"/>
-      <c r="H26" s="123"/>
-      <c r="I26" s="123"/>
-      <c r="J26" s="123"/>
-      <c r="K26" s="123"/>
-      <c r="L26" s="123"/>
-      <c r="M26" s="123"/>
-      <c r="N26" s="123"/>
-      <c r="O26" s="123"/>
-      <c r="P26" s="123"/>
-      <c r="Q26" s="123"/>
-      <c r="R26" s="123"/>
-      <c r="S26" s="123"/>
-      <c r="T26" s="123"/>
-      <c r="U26" s="123"/>
-      <c r="V26" s="123"/>
-      <c r="W26" s="123"/>
-      <c r="X26" s="123"/>
-      <c r="Y26" s="123"/>
-      <c r="Z26" s="123"/>
-      <c r="AA26" s="123"/>
-      <c r="AB26" s="123"/>
-      <c r="AC26" s="123"/>
-      <c r="AD26" s="123"/>
-      <c r="AE26" s="123"/>
-      <c r="AF26" s="123"/>
-      <c r="AG26" s="123"/>
-      <c r="AH26" s="123"/>
-      <c r="AI26" s="123"/>
-      <c r="AJ26" s="123"/>
-      <c r="AK26" s="123"/>
-      <c r="AL26" s="123"/>
-      <c r="AM26" s="123"/>
-      <c r="AN26" s="123"/>
-      <c r="AO26" s="123"/>
-      <c r="AP26" s="123"/>
-      <c r="AQ26" s="123"/>
-      <c r="AR26" s="123"/>
-      <c r="AS26" s="123"/>
+      <c r="F26" s="187"/>
+      <c r="G26" s="186"/>
+      <c r="H26" s="186"/>
+      <c r="I26" s="186"/>
+      <c r="J26" s="186"/>
+      <c r="K26" s="186"/>
+      <c r="L26" s="186"/>
+      <c r="M26" s="186"/>
+      <c r="N26" s="186"/>
+      <c r="O26" s="186"/>
+      <c r="P26" s="186"/>
+      <c r="Q26" s="186"/>
+      <c r="R26" s="186"/>
+      <c r="S26" s="186"/>
+      <c r="T26" s="186"/>
+      <c r="U26" s="186"/>
+      <c r="V26" s="186"/>
+      <c r="W26" s="186"/>
+      <c r="X26" s="186"/>
+      <c r="Y26" s="186"/>
+      <c r="Z26" s="186"/>
+      <c r="AA26" s="186"/>
+      <c r="AB26" s="186"/>
+      <c r="AC26" s="186"/>
+      <c r="AD26" s="186"/>
+      <c r="AE26" s="186"/>
+      <c r="AF26" s="186"/>
+      <c r="AG26" s="186"/>
+      <c r="AH26" s="186"/>
+      <c r="AI26" s="186"/>
+      <c r="AJ26" s="186"/>
+      <c r="AK26" s="186"/>
+      <c r="AL26" s="186"/>
+      <c r="AM26" s="186"/>
+      <c r="AN26" s="186"/>
+      <c r="AO26" s="186"/>
+      <c r="AP26" s="186"/>
+      <c r="AQ26" s="186"/>
+      <c r="AR26" s="186"/>
+      <c r="AS26" s="186"/>
       <c r="AT26" s="25"/>
     </row>
     <row r="27" spans="1:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="83"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="85"/>
+      <c r="B27" s="268"/>
+      <c r="C27" s="269"/>
+      <c r="D27" s="270"/>
       <c r="E27" s="24"/>
-      <c r="F27" s="185"/>
-      <c r="G27" s="123"/>
-      <c r="H27" s="123"/>
-      <c r="I27" s="123"/>
-      <c r="J27" s="123"/>
-      <c r="K27" s="123"/>
-      <c r="L27" s="123"/>
-      <c r="M27" s="123"/>
-      <c r="N27" s="123"/>
-      <c r="O27" s="123"/>
-      <c r="P27" s="123"/>
-      <c r="Q27" s="123"/>
-      <c r="R27" s="123"/>
-      <c r="S27" s="123"/>
-      <c r="T27" s="123"/>
-      <c r="U27" s="123"/>
-      <c r="V27" s="123"/>
-      <c r="W27" s="123"/>
-      <c r="X27" s="123"/>
-      <c r="Y27" s="123"/>
-      <c r="Z27" s="123"/>
-      <c r="AA27" s="123"/>
-      <c r="AB27" s="123"/>
-      <c r="AC27" s="123"/>
-      <c r="AD27" s="123"/>
-      <c r="AE27" s="123"/>
-      <c r="AF27" s="123"/>
-      <c r="AG27" s="123"/>
-      <c r="AH27" s="123"/>
-      <c r="AI27" s="123"/>
-      <c r="AJ27" s="123"/>
-      <c r="AK27" s="123"/>
-      <c r="AL27" s="123"/>
-      <c r="AM27" s="123"/>
-      <c r="AN27" s="123"/>
-      <c r="AO27" s="123"/>
-      <c r="AP27" s="123"/>
-      <c r="AQ27" s="123"/>
-      <c r="AR27" s="123"/>
-      <c r="AS27" s="123"/>
+      <c r="F27" s="187"/>
+      <c r="G27" s="186"/>
+      <c r="H27" s="186"/>
+      <c r="I27" s="186"/>
+      <c r="J27" s="186"/>
+      <c r="K27" s="186"/>
+      <c r="L27" s="186"/>
+      <c r="M27" s="186"/>
+      <c r="N27" s="186"/>
+      <c r="O27" s="186"/>
+      <c r="P27" s="186"/>
+      <c r="Q27" s="186"/>
+      <c r="R27" s="186"/>
+      <c r="S27" s="186"/>
+      <c r="T27" s="186"/>
+      <c r="U27" s="186"/>
+      <c r="V27" s="186"/>
+      <c r="W27" s="186"/>
+      <c r="X27" s="186"/>
+      <c r="Y27" s="186"/>
+      <c r="Z27" s="186"/>
+      <c r="AA27" s="186"/>
+      <c r="AB27" s="186"/>
+      <c r="AC27" s="186"/>
+      <c r="AD27" s="186"/>
+      <c r="AE27" s="186"/>
+      <c r="AF27" s="186"/>
+      <c r="AG27" s="186"/>
+      <c r="AH27" s="186"/>
+      <c r="AI27" s="186"/>
+      <c r="AJ27" s="186"/>
+      <c r="AK27" s="186"/>
+      <c r="AL27" s="186"/>
+      <c r="AM27" s="186"/>
+      <c r="AN27" s="186"/>
+      <c r="AO27" s="186"/>
+      <c r="AP27" s="186"/>
+      <c r="AQ27" s="186"/>
+      <c r="AR27" s="186"/>
+      <c r="AS27" s="186"/>
       <c r="AT27" s="25"/>
     </row>
     <row r="28" spans="1:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="74"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="76"/>
+      <c r="B28" s="261"/>
+      <c r="C28" s="262"/>
+      <c r="D28" s="263"/>
       <c r="E28" s="26"/>
-      <c r="F28" s="186"/>
-      <c r="G28" s="187"/>
-      <c r="H28" s="187"/>
-      <c r="I28" s="187"/>
-      <c r="J28" s="187"/>
-      <c r="K28" s="187"/>
-      <c r="L28" s="187"/>
-      <c r="M28" s="187"/>
-      <c r="N28" s="187"/>
-      <c r="O28" s="187"/>
-      <c r="P28" s="187"/>
-      <c r="Q28" s="187"/>
-      <c r="R28" s="187"/>
-      <c r="S28" s="187"/>
-      <c r="T28" s="187"/>
-      <c r="U28" s="187"/>
-      <c r="V28" s="187"/>
-      <c r="W28" s="187"/>
-      <c r="X28" s="187"/>
-      <c r="Y28" s="187"/>
-      <c r="Z28" s="187"/>
-      <c r="AA28" s="187"/>
-      <c r="AB28" s="187"/>
-      <c r="AC28" s="187"/>
-      <c r="AD28" s="187"/>
-      <c r="AE28" s="187"/>
-      <c r="AF28" s="187"/>
-      <c r="AG28" s="187"/>
-      <c r="AH28" s="187"/>
-      <c r="AI28" s="187"/>
-      <c r="AJ28" s="187"/>
-      <c r="AK28" s="187"/>
-      <c r="AL28" s="187"/>
-      <c r="AM28" s="187"/>
-      <c r="AN28" s="187"/>
-      <c r="AO28" s="187"/>
-      <c r="AP28" s="187"/>
-      <c r="AQ28" s="187"/>
-      <c r="AR28" s="187"/>
-      <c r="AS28" s="187"/>
+      <c r="F28" s="188"/>
+      <c r="G28" s="189"/>
+      <c r="H28" s="189"/>
+      <c r="I28" s="189"/>
+      <c r="J28" s="189"/>
+      <c r="K28" s="189"/>
+      <c r="L28" s="189"/>
+      <c r="M28" s="189"/>
+      <c r="N28" s="189"/>
+      <c r="O28" s="189"/>
+      <c r="P28" s="189"/>
+      <c r="Q28" s="189"/>
+      <c r="R28" s="189"/>
+      <c r="S28" s="189"/>
+      <c r="T28" s="189"/>
+      <c r="U28" s="189"/>
+      <c r="V28" s="189"/>
+      <c r="W28" s="189"/>
+      <c r="X28" s="189"/>
+      <c r="Y28" s="189"/>
+      <c r="Z28" s="189"/>
+      <c r="AA28" s="189"/>
+      <c r="AB28" s="189"/>
+      <c r="AC28" s="189"/>
+      <c r="AD28" s="189"/>
+      <c r="AE28" s="189"/>
+      <c r="AF28" s="189"/>
+      <c r="AG28" s="189"/>
+      <c r="AH28" s="189"/>
+      <c r="AI28" s="189"/>
+      <c r="AJ28" s="189"/>
+      <c r="AK28" s="189"/>
+      <c r="AL28" s="189"/>
+      <c r="AM28" s="189"/>
+      <c r="AN28" s="189"/>
+      <c r="AO28" s="189"/>
+      <c r="AP28" s="189"/>
+      <c r="AQ28" s="189"/>
+      <c r="AR28" s="189"/>
+      <c r="AS28" s="189"/>
       <c r="AT28" s="27"/>
     </row>
     <row r="29" spans="1:46" ht="10" customHeight="1" x14ac:dyDescent="0.2">
@@ -5306,13 +5335,13 @@
       <c r="AS30" s="7"/>
       <c r="AT30" s="9"/>
     </row>
-    <row r="31" spans="1:46" s="262" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="259"/>
-      <c r="B31" s="260"/>
-      <c r="C31" s="261" t="s">
+    <row r="31" spans="1:46" s="68" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="65"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="D31" s="261"/>
+      <c r="D31" s="67"/>
       <c r="E31" s="31"/>
       <c r="F31" s="31"/>
       <c r="G31" s="32"/>
@@ -5328,20 +5357,20 @@
       <c r="Q31" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="R31" s="261"/>
-      <c r="S31" s="261"/>
+      <c r="R31" s="67"/>
+      <c r="S31" s="67"/>
       <c r="T31" s="32" t="s">
         <v>132</v>
       </c>
       <c r="U31" s="32"/>
       <c r="V31" s="32"/>
       <c r="W31" s="32"/>
-      <c r="X31" s="261"/>
+      <c r="X31" s="67"/>
       <c r="Y31" s="32"/>
-      <c r="Z31" s="261"/>
-      <c r="AA31" s="261"/>
-      <c r="AB31" s="261"/>
-      <c r="AC31" s="261"/>
+      <c r="Z31" s="67"/>
+      <c r="AA31" s="67"/>
+      <c r="AB31" s="67"/>
+      <c r="AC31" s="67"/>
       <c r="AD31" s="33" t="s">
         <v>133</v>
       </c>
@@ -5350,7 +5379,7 @@
       <c r="AG31" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="AH31" s="261"/>
+      <c r="AH31" s="67"/>
       <c r="AI31" s="32"/>
       <c r="AJ31" s="32"/>
       <c r="AK31" s="32"/>
@@ -5366,59 +5395,59 @@
     </row>
     <row r="32" spans="1:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="35"/>
-      <c r="C32" s="168" t="s">
+      <c r="C32" s="282" t="s">
         <v>135</v>
       </c>
-      <c r="D32" s="169"/>
-      <c r="E32" s="169"/>
-      <c r="F32" s="169"/>
-      <c r="G32" s="169"/>
-      <c r="H32" s="170"/>
-      <c r="I32" s="171" t="s">
+      <c r="D32" s="283"/>
+      <c r="E32" s="283"/>
+      <c r="F32" s="283"/>
+      <c r="G32" s="283"/>
+      <c r="H32" s="284"/>
+      <c r="I32" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="J32" s="172"/>
-      <c r="K32" s="172"/>
-      <c r="L32" s="172"/>
-      <c r="M32" s="172"/>
-      <c r="N32" s="173"/>
-      <c r="O32" s="171" t="s">
+      <c r="J32" s="151"/>
+      <c r="K32" s="151"/>
+      <c r="L32" s="151"/>
+      <c r="M32" s="151"/>
+      <c r="N32" s="137"/>
+      <c r="O32" s="163" t="s">
         <v>125</v>
       </c>
-      <c r="P32" s="172"/>
-      <c r="Q32" s="173"/>
+      <c r="P32" s="151"/>
+      <c r="Q32" s="137"/>
       <c r="R32" s="7"/>
       <c r="S32" s="7"/>
-      <c r="T32" s="171" t="s">
+      <c r="T32" s="163" t="s">
         <v>136</v>
       </c>
-      <c r="U32" s="172"/>
-      <c r="V32" s="172"/>
-      <c r="W32" s="172"/>
-      <c r="X32" s="172"/>
-      <c r="Y32" s="172"/>
-      <c r="Z32" s="172"/>
-      <c r="AA32" s="172"/>
-      <c r="AB32" s="172"/>
-      <c r="AC32" s="172"/>
-      <c r="AD32" s="173"/>
+      <c r="U32" s="151"/>
+      <c r="V32" s="151"/>
+      <c r="W32" s="151"/>
+      <c r="X32" s="151"/>
+      <c r="Y32" s="151"/>
+      <c r="Z32" s="151"/>
+      <c r="AA32" s="151"/>
+      <c r="AB32" s="151"/>
+      <c r="AC32" s="151"/>
+      <c r="AD32" s="137"/>
       <c r="AE32" s="7"/>
       <c r="AF32" s="7"/>
-      <c r="AG32" s="273" t="s">
+      <c r="AG32" s="164" t="s">
         <v>166</v>
       </c>
-      <c r="AH32" s="274"/>
-      <c r="AI32" s="274"/>
-      <c r="AJ32" s="274"/>
-      <c r="AK32" s="274"/>
-      <c r="AL32" s="274"/>
-      <c r="AM32" s="274"/>
-      <c r="AN32" s="274"/>
-      <c r="AO32" s="274"/>
-      <c r="AP32" s="274"/>
-      <c r="AQ32" s="274"/>
-      <c r="AR32" s="274"/>
-      <c r="AS32" s="275"/>
+      <c r="AH32" s="165"/>
+      <c r="AI32" s="165"/>
+      <c r="AJ32" s="165"/>
+      <c r="AK32" s="165"/>
+      <c r="AL32" s="165"/>
+      <c r="AM32" s="165"/>
+      <c r="AN32" s="165"/>
+      <c r="AO32" s="165"/>
+      <c r="AP32" s="165"/>
+      <c r="AQ32" s="165"/>
+      <c r="AR32" s="165"/>
+      <c r="AS32" s="166"/>
       <c r="AT32" s="36"/>
     </row>
     <row r="33" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5431,67 +5460,67 @@
       <c r="F33" s="40"/>
       <c r="G33" s="39"/>
       <c r="H33" s="41"/>
-      <c r="I33" s="139"/>
-      <c r="J33" s="174"/>
-      <c r="K33" s="174"/>
-      <c r="L33" s="174"/>
-      <c r="M33" s="174"/>
-      <c r="N33" s="140"/>
-      <c r="O33" s="175"/>
-      <c r="P33" s="176"/>
-      <c r="Q33" s="177"/>
+      <c r="I33" s="167"/>
+      <c r="J33" s="168"/>
+      <c r="K33" s="168"/>
+      <c r="L33" s="168"/>
+      <c r="M33" s="168"/>
+      <c r="N33" s="169"/>
+      <c r="O33" s="170"/>
+      <c r="P33" s="171"/>
+      <c r="Q33" s="172"/>
       <c r="R33" s="42"/>
       <c r="S33" s="42"/>
-      <c r="T33" s="98" t="s">
+      <c r="T33" s="231" t="s">
         <v>11</v>
       </c>
-      <c r="U33" s="98" t="s">
+      <c r="U33" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="V33" s="98" t="s">
+      <c r="V33" s="231" t="s">
         <v>13</v>
       </c>
-      <c r="W33" s="98" t="s">
+      <c r="W33" s="231" t="s">
         <v>138</v>
       </c>
-      <c r="X33" s="98" t="s">
+      <c r="X33" s="231" t="s">
         <v>14</v>
       </c>
-      <c r="Y33" s="101" t="s">
+      <c r="Y33" s="234" t="s">
         <v>15</v>
       </c>
-      <c r="Z33" s="98" t="s">
+      <c r="Z33" s="231" t="s">
         <v>16</v>
       </c>
-      <c r="AA33" s="98" t="s">
+      <c r="AA33" s="231" t="s">
         <v>17</v>
       </c>
-      <c r="AB33" s="98" t="s">
+      <c r="AB33" s="231" t="s">
         <v>139</v>
       </c>
-      <c r="AC33" s="98" t="s">
+      <c r="AC33" s="231" t="s">
         <v>140</v>
       </c>
-      <c r="AD33" s="98" t="s">
+      <c r="AD33" s="231" t="s">
         <v>19</v>
       </c>
       <c r="AE33" s="42"/>
       <c r="AF33" s="42"/>
-      <c r="AG33" s="162" t="s">
+      <c r="AG33" s="173" t="s">
         <v>167</v>
       </c>
-      <c r="AH33" s="163"/>
-      <c r="AI33" s="163"/>
-      <c r="AJ33" s="163"/>
-      <c r="AK33" s="163"/>
-      <c r="AL33" s="163"/>
-      <c r="AM33" s="163"/>
-      <c r="AN33" s="163"/>
-      <c r="AO33" s="163"/>
-      <c r="AP33" s="163"/>
-      <c r="AQ33" s="163"/>
-      <c r="AR33" s="163"/>
-      <c r="AS33" s="164"/>
+      <c r="AH33" s="174"/>
+      <c r="AI33" s="174"/>
+      <c r="AJ33" s="174"/>
+      <c r="AK33" s="174"/>
+      <c r="AL33" s="174"/>
+      <c r="AM33" s="174"/>
+      <c r="AN33" s="174"/>
+      <c r="AO33" s="174"/>
+      <c r="AP33" s="174"/>
+      <c r="AQ33" s="174"/>
+      <c r="AR33" s="174"/>
+      <c r="AS33" s="175"/>
       <c r="AT33" s="36"/>
     </row>
     <row r="34" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5504,28 +5533,28 @@
       <c r="F34" s="45"/>
       <c r="G34" s="44"/>
       <c r="H34" s="46"/>
-      <c r="I34" s="153"/>
-      <c r="J34" s="154"/>
-      <c r="K34" s="154"/>
-      <c r="L34" s="154"/>
-      <c r="M34" s="154"/>
-      <c r="N34" s="155"/>
-      <c r="O34" s="156"/>
-      <c r="P34" s="157"/>
-      <c r="Q34" s="158"/>
+      <c r="I34" s="176"/>
+      <c r="J34" s="177"/>
+      <c r="K34" s="177"/>
+      <c r="L34" s="177"/>
+      <c r="M34" s="177"/>
+      <c r="N34" s="178"/>
+      <c r="O34" s="179"/>
+      <c r="P34" s="180"/>
+      <c r="Q34" s="181"/>
       <c r="R34" s="42"/>
       <c r="S34" s="42"/>
-      <c r="T34" s="99"/>
-      <c r="U34" s="99"/>
-      <c r="V34" s="99"/>
-      <c r="W34" s="99"/>
-      <c r="X34" s="99"/>
-      <c r="Y34" s="102"/>
-      <c r="Z34" s="99"/>
-      <c r="AA34" s="99"/>
-      <c r="AB34" s="99"/>
-      <c r="AC34" s="99"/>
-      <c r="AD34" s="99"/>
+      <c r="T34" s="232"/>
+      <c r="U34" s="232"/>
+      <c r="V34" s="232"/>
+      <c r="W34" s="232"/>
+      <c r="X34" s="232"/>
+      <c r="Y34" s="235"/>
+      <c r="Z34" s="232"/>
+      <c r="AA34" s="232"/>
+      <c r="AB34" s="232"/>
+      <c r="AC34" s="232"/>
+      <c r="AD34" s="232"/>
       <c r="AE34" s="42"/>
       <c r="AF34" s="42"/>
       <c r="AG34" s="17" t="s">
@@ -5554,45 +5583,45 @@
       <c r="F35" s="45"/>
       <c r="G35" s="44"/>
       <c r="H35" s="46"/>
-      <c r="I35" s="153"/>
-      <c r="J35" s="154"/>
-      <c r="K35" s="154"/>
-      <c r="L35" s="154"/>
-      <c r="M35" s="154"/>
-      <c r="N35" s="155"/>
-      <c r="O35" s="156"/>
-      <c r="P35" s="157"/>
-      <c r="Q35" s="158"/>
+      <c r="I35" s="176"/>
+      <c r="J35" s="177"/>
+      <c r="K35" s="177"/>
+      <c r="L35" s="177"/>
+      <c r="M35" s="177"/>
+      <c r="N35" s="178"/>
+      <c r="O35" s="179"/>
+      <c r="P35" s="180"/>
+      <c r="Q35" s="181"/>
       <c r="R35" s="42"/>
       <c r="S35" s="42"/>
-      <c r="T35" s="100"/>
-      <c r="U35" s="100"/>
-      <c r="V35" s="100"/>
-      <c r="W35" s="100"/>
-      <c r="X35" s="100"/>
-      <c r="Y35" s="103"/>
-      <c r="Z35" s="100"/>
-      <c r="AA35" s="100"/>
-      <c r="AB35" s="100"/>
-      <c r="AC35" s="100"/>
-      <c r="AD35" s="100"/>
+      <c r="T35" s="233"/>
+      <c r="U35" s="233"/>
+      <c r="V35" s="233"/>
+      <c r="W35" s="233"/>
+      <c r="X35" s="233"/>
+      <c r="Y35" s="236"/>
+      <c r="Z35" s="233"/>
+      <c r="AA35" s="233"/>
+      <c r="AB35" s="233"/>
+      <c r="AC35" s="233"/>
+      <c r="AD35" s="233"/>
       <c r="AE35" s="42"/>
       <c r="AF35" s="42"/>
-      <c r="AG35" s="270" t="s">
+      <c r="AG35" s="276" t="s">
         <v>144</v>
       </c>
-      <c r="AH35" s="271"/>
-      <c r="AI35" s="271"/>
-      <c r="AJ35" s="271"/>
-      <c r="AK35" s="271"/>
-      <c r="AL35" s="271"/>
-      <c r="AM35" s="271"/>
-      <c r="AN35" s="271"/>
-      <c r="AO35" s="271"/>
-      <c r="AP35" s="271"/>
-      <c r="AQ35" s="271"/>
-      <c r="AR35" s="271"/>
-      <c r="AS35" s="272"/>
+      <c r="AH35" s="277"/>
+      <c r="AI35" s="277"/>
+      <c r="AJ35" s="277"/>
+      <c r="AK35" s="277"/>
+      <c r="AL35" s="277"/>
+      <c r="AM35" s="277"/>
+      <c r="AN35" s="277"/>
+      <c r="AO35" s="277"/>
+      <c r="AP35" s="277"/>
+      <c r="AQ35" s="277"/>
+      <c r="AR35" s="277"/>
+      <c r="AS35" s="278"/>
       <c r="AT35" s="36"/>
     </row>
     <row r="36" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5605,15 +5634,15 @@
       <c r="F36" s="50"/>
       <c r="G36" s="49"/>
       <c r="H36" s="51"/>
-      <c r="I36" s="159"/>
-      <c r="J36" s="160"/>
-      <c r="K36" s="160"/>
-      <c r="L36" s="160"/>
-      <c r="M36" s="160"/>
-      <c r="N36" s="161"/>
-      <c r="O36" s="159"/>
-      <c r="P36" s="160"/>
-      <c r="Q36" s="161"/>
+      <c r="I36" s="279"/>
+      <c r="J36" s="280"/>
+      <c r="K36" s="280"/>
+      <c r="L36" s="280"/>
+      <c r="M36" s="280"/>
+      <c r="N36" s="281"/>
+      <c r="O36" s="279"/>
+      <c r="P36" s="280"/>
+      <c r="Q36" s="281"/>
       <c r="R36" s="30"/>
       <c r="S36" s="30"/>
       <c r="T36" s="52"/>
@@ -5645,21 +5674,21 @@
       </c>
       <c r="AE36" s="7"/>
       <c r="AF36" s="7"/>
-      <c r="AG36" s="270" t="s">
+      <c r="AG36" s="276" t="s">
         <v>99</v>
       </c>
-      <c r="AH36" s="271"/>
-      <c r="AI36" s="271"/>
-      <c r="AJ36" s="271"/>
-      <c r="AK36" s="271"/>
-      <c r="AL36" s="271"/>
-      <c r="AM36" s="271"/>
-      <c r="AN36" s="271"/>
-      <c r="AO36" s="271"/>
-      <c r="AP36" s="271"/>
-      <c r="AQ36" s="271"/>
-      <c r="AR36" s="271"/>
-      <c r="AS36" s="272"/>
+      <c r="AH36" s="277"/>
+      <c r="AI36" s="277"/>
+      <c r="AJ36" s="277"/>
+      <c r="AK36" s="277"/>
+      <c r="AL36" s="277"/>
+      <c r="AM36" s="277"/>
+      <c r="AN36" s="277"/>
+      <c r="AO36" s="277"/>
+      <c r="AP36" s="277"/>
+      <c r="AQ36" s="277"/>
+      <c r="AR36" s="277"/>
+      <c r="AS36" s="278"/>
       <c r="AT36" s="36"/>
     </row>
     <row r="37" spans="2:46" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5790,365 +5819,365 @@
       <c r="AT39" s="30"/>
     </row>
     <row r="40" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="86" t="s">
+      <c r="B40" s="271" t="s">
         <v>147</v>
       </c>
-      <c r="C40" s="78"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="87"/>
-      <c r="G40" s="90" t="s">
+      <c r="C40" s="113"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="274" t="s">
         <v>148</v>
       </c>
-      <c r="H40" s="90"/>
-      <c r="I40" s="90"/>
-      <c r="J40" s="90"/>
-      <c r="K40" s="90"/>
-      <c r="L40" s="90"/>
-      <c r="M40" s="90"/>
-      <c r="N40" s="90"/>
-      <c r="O40" s="77" t="s">
+      <c r="H40" s="274"/>
+      <c r="I40" s="274"/>
+      <c r="J40" s="274"/>
+      <c r="K40" s="274"/>
+      <c r="L40" s="274"/>
+      <c r="M40" s="274"/>
+      <c r="N40" s="274"/>
+      <c r="O40" s="112" t="s">
         <v>149</v>
       </c>
-      <c r="P40" s="78"/>
-      <c r="Q40" s="78"/>
-      <c r="R40" s="87"/>
-      <c r="S40" s="165" t="s">
+      <c r="P40" s="113"/>
+      <c r="Q40" s="113"/>
+      <c r="R40" s="114"/>
+      <c r="S40" s="111" t="s">
         <v>150</v>
       </c>
-      <c r="T40" s="166"/>
-      <c r="U40" s="166"/>
-      <c r="V40" s="166"/>
-      <c r="W40" s="166"/>
-      <c r="X40" s="167"/>
-      <c r="Y40" s="165" t="s">
+      <c r="T40" s="109"/>
+      <c r="U40" s="109"/>
+      <c r="V40" s="109"/>
+      <c r="W40" s="109"/>
+      <c r="X40" s="110"/>
+      <c r="Y40" s="111" t="s">
         <v>151</v>
       </c>
-      <c r="Z40" s="166"/>
-      <c r="AA40" s="166"/>
-      <c r="AB40" s="166"/>
-      <c r="AC40" s="166"/>
-      <c r="AD40" s="167"/>
-      <c r="AE40" s="165" t="s">
+      <c r="Z40" s="109"/>
+      <c r="AA40" s="109"/>
+      <c r="AB40" s="109"/>
+      <c r="AC40" s="109"/>
+      <c r="AD40" s="110"/>
+      <c r="AE40" s="111" t="s">
         <v>152</v>
       </c>
-      <c r="AF40" s="166"/>
-      <c r="AG40" s="166"/>
-      <c r="AH40" s="166"/>
-      <c r="AI40" s="166"/>
-      <c r="AJ40" s="167"/>
-      <c r="AK40" s="77" t="s">
+      <c r="AF40" s="109"/>
+      <c r="AG40" s="109"/>
+      <c r="AH40" s="109"/>
+      <c r="AI40" s="109"/>
+      <c r="AJ40" s="110"/>
+      <c r="AK40" s="112" t="s">
         <v>128</v>
       </c>
-      <c r="AL40" s="78"/>
-      <c r="AM40" s="78"/>
-      <c r="AN40" s="78"/>
-      <c r="AO40" s="78"/>
-      <c r="AP40" s="78"/>
-      <c r="AQ40" s="78"/>
-      <c r="AR40" s="78"/>
-      <c r="AS40" s="78"/>
-      <c r="AT40" s="79"/>
+      <c r="AL40" s="113"/>
+      <c r="AM40" s="113"/>
+      <c r="AN40" s="113"/>
+      <c r="AO40" s="113"/>
+      <c r="AP40" s="113"/>
+      <c r="AQ40" s="113"/>
+      <c r="AR40" s="113"/>
+      <c r="AS40" s="113"/>
+      <c r="AT40" s="264"/>
     </row>
     <row r="41" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="88"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="89"/>
-      <c r="G41" s="91"/>
-      <c r="H41" s="91"/>
-      <c r="I41" s="91"/>
-      <c r="J41" s="91"/>
-      <c r="K41" s="91"/>
-      <c r="L41" s="91"/>
-      <c r="M41" s="91"/>
-      <c r="N41" s="91"/>
-      <c r="O41" s="80"/>
-      <c r="P41" s="81"/>
-      <c r="Q41" s="81"/>
-      <c r="R41" s="89"/>
-      <c r="S41" s="150" t="s">
+      <c r="B41" s="272"/>
+      <c r="C41" s="266"/>
+      <c r="D41" s="266"/>
+      <c r="E41" s="266"/>
+      <c r="F41" s="273"/>
+      <c r="G41" s="275"/>
+      <c r="H41" s="275"/>
+      <c r="I41" s="275"/>
+      <c r="J41" s="275"/>
+      <c r="K41" s="275"/>
+      <c r="L41" s="275"/>
+      <c r="M41" s="275"/>
+      <c r="N41" s="275"/>
+      <c r="O41" s="265"/>
+      <c r="P41" s="266"/>
+      <c r="Q41" s="266"/>
+      <c r="R41" s="273"/>
+      <c r="S41" s="191" t="s">
         <v>153</v>
       </c>
-      <c r="T41" s="151"/>
-      <c r="U41" s="150" t="s">
+      <c r="T41" s="192"/>
+      <c r="U41" s="191" t="s">
         <v>154</v>
       </c>
-      <c r="V41" s="151"/>
-      <c r="W41" s="152" t="s">
+      <c r="V41" s="192"/>
+      <c r="W41" s="95" t="s">
         <v>155</v>
       </c>
-      <c r="X41" s="152"/>
-      <c r="Y41" s="150" t="s">
+      <c r="X41" s="95"/>
+      <c r="Y41" s="191" t="s">
         <v>153</v>
       </c>
-      <c r="Z41" s="151"/>
-      <c r="AA41" s="150" t="s">
+      <c r="Z41" s="192"/>
+      <c r="AA41" s="191" t="s">
         <v>154</v>
       </c>
-      <c r="AB41" s="151"/>
-      <c r="AC41" s="152" t="s">
+      <c r="AB41" s="192"/>
+      <c r="AC41" s="95" t="s">
         <v>155</v>
       </c>
-      <c r="AD41" s="152"/>
-      <c r="AE41" s="150" t="s">
+      <c r="AD41" s="95"/>
+      <c r="AE41" s="191" t="s">
         <v>153</v>
       </c>
-      <c r="AF41" s="151"/>
-      <c r="AG41" s="150" t="s">
+      <c r="AF41" s="192"/>
+      <c r="AG41" s="191" t="s">
         <v>154</v>
       </c>
-      <c r="AH41" s="151"/>
-      <c r="AI41" s="152" t="s">
+      <c r="AH41" s="192"/>
+      <c r="AI41" s="95" t="s">
         <v>155</v>
       </c>
-      <c r="AJ41" s="152"/>
-      <c r="AK41" s="80"/>
-      <c r="AL41" s="81"/>
-      <c r="AM41" s="81"/>
-      <c r="AN41" s="81"/>
-      <c r="AO41" s="81"/>
-      <c r="AP41" s="81"/>
-      <c r="AQ41" s="81"/>
-      <c r="AR41" s="81"/>
-      <c r="AS41" s="81"/>
-      <c r="AT41" s="82"/>
+      <c r="AJ41" s="95"/>
+      <c r="AK41" s="265"/>
+      <c r="AL41" s="266"/>
+      <c r="AM41" s="266"/>
+      <c r="AN41" s="266"/>
+      <c r="AO41" s="266"/>
+      <c r="AP41" s="266"/>
+      <c r="AQ41" s="266"/>
+      <c r="AR41" s="266"/>
+      <c r="AS41" s="266"/>
+      <c r="AT41" s="267"/>
     </row>
     <row r="42" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="146" t="s">
+      <c r="B42" s="207" t="s">
         <v>156</v>
       </c>
-      <c r="C42" s="147"/>
-      <c r="D42" s="147"/>
-      <c r="E42" s="147"/>
-      <c r="F42" s="148"/>
-      <c r="G42" s="141" t="s">
+      <c r="C42" s="208"/>
+      <c r="D42" s="208"/>
+      <c r="E42" s="208"/>
+      <c r="F42" s="209"/>
+      <c r="G42" s="195" t="s">
         <v>157</v>
       </c>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
-      <c r="N42" s="142"/>
-      <c r="O42" s="138"/>
-      <c r="P42" s="138"/>
-      <c r="Q42" s="138"/>
-      <c r="R42" s="138"/>
-      <c r="S42" s="138"/>
-      <c r="T42" s="138"/>
-      <c r="U42" s="138"/>
-      <c r="V42" s="138"/>
-      <c r="W42" s="139" t="s">
+      <c r="H42" s="210"/>
+      <c r="I42" s="210"/>
+      <c r="J42" s="210"/>
+      <c r="K42" s="210"/>
+      <c r="L42" s="210"/>
+      <c r="M42" s="210"/>
+      <c r="N42" s="196"/>
+      <c r="O42" s="190"/>
+      <c r="P42" s="190"/>
+      <c r="Q42" s="190"/>
+      <c r="R42" s="190"/>
+      <c r="S42" s="190"/>
+      <c r="T42" s="190"/>
+      <c r="U42" s="190"/>
+      <c r="V42" s="190"/>
+      <c r="W42" s="167" t="s">
         <v>21</v>
       </c>
-      <c r="X42" s="140"/>
-      <c r="Y42" s="138"/>
-      <c r="Z42" s="138"/>
-      <c r="AA42" s="138"/>
-      <c r="AB42" s="138"/>
-      <c r="AC42" s="139" t="s">
+      <c r="X42" s="169"/>
+      <c r="Y42" s="190"/>
+      <c r="Z42" s="190"/>
+      <c r="AA42" s="190"/>
+      <c r="AB42" s="190"/>
+      <c r="AC42" s="167" t="s">
         <v>21</v>
       </c>
-      <c r="AD42" s="140"/>
-      <c r="AE42" s="138"/>
-      <c r="AF42" s="138"/>
-      <c r="AG42" s="139"/>
-      <c r="AH42" s="140"/>
-      <c r="AI42" s="141" t="s">
+      <c r="AD42" s="169"/>
+      <c r="AE42" s="190"/>
+      <c r="AF42" s="190"/>
+      <c r="AG42" s="167"/>
+      <c r="AH42" s="169"/>
+      <c r="AI42" s="195" t="s">
         <v>21</v>
       </c>
-      <c r="AJ42" s="142"/>
-      <c r="AK42" s="143"/>
-      <c r="AL42" s="143"/>
-      <c r="AM42" s="143"/>
-      <c r="AN42" s="143"/>
-      <c r="AO42" s="143"/>
-      <c r="AP42" s="143"/>
-      <c r="AQ42" s="143"/>
-      <c r="AR42" s="143"/>
-      <c r="AS42" s="143"/>
-      <c r="AT42" s="144"/>
+      <c r="AJ42" s="196"/>
+      <c r="AK42" s="197"/>
+      <c r="AL42" s="197"/>
+      <c r="AM42" s="197"/>
+      <c r="AN42" s="197"/>
+      <c r="AO42" s="197"/>
+      <c r="AP42" s="197"/>
+      <c r="AQ42" s="197"/>
+      <c r="AR42" s="197"/>
+      <c r="AS42" s="197"/>
+      <c r="AT42" s="198"/>
     </row>
     <row r="43" spans="2:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="134" t="s">
+      <c r="B43" s="199" t="s">
         <v>158</v>
       </c>
-      <c r="C43" s="135"/>
-      <c r="D43" s="135"/>
-      <c r="E43" s="135"/>
-      <c r="F43" s="136"/>
-      <c r="G43" s="120" t="s">
+      <c r="C43" s="200"/>
+      <c r="D43" s="200"/>
+      <c r="E43" s="200"/>
+      <c r="F43" s="201"/>
+      <c r="G43" s="193" t="s">
         <v>159</v>
       </c>
-      <c r="H43" s="137"/>
-      <c r="I43" s="137"/>
-      <c r="J43" s="137"/>
-      <c r="K43" s="137"/>
-      <c r="L43" s="137"/>
-      <c r="M43" s="137"/>
-      <c r="N43" s="121"/>
-      <c r="O43" s="276">
+      <c r="H43" s="202"/>
+      <c r="I43" s="202"/>
+      <c r="J43" s="202"/>
+      <c r="K43" s="202"/>
+      <c r="L43" s="202"/>
+      <c r="M43" s="202"/>
+      <c r="N43" s="194"/>
+      <c r="O43" s="203">
         <v>12</v>
       </c>
-      <c r="P43" s="137"/>
-      <c r="Q43" s="137"/>
-      <c r="R43" s="121"/>
-      <c r="S43" s="120"/>
-      <c r="T43" s="121"/>
-      <c r="U43" s="120" t="s">
+      <c r="P43" s="202"/>
+      <c r="Q43" s="202"/>
+      <c r="R43" s="194"/>
+      <c r="S43" s="193"/>
+      <c r="T43" s="194"/>
+      <c r="U43" s="193" t="s">
         <v>21</v>
       </c>
-      <c r="V43" s="121"/>
-      <c r="W43" s="120"/>
-      <c r="X43" s="121"/>
-      <c r="Y43" s="120"/>
-      <c r="Z43" s="121"/>
-      <c r="AA43" s="120" t="s">
+      <c r="V43" s="194"/>
+      <c r="W43" s="193"/>
+      <c r="X43" s="194"/>
+      <c r="Y43" s="193"/>
+      <c r="Z43" s="194"/>
+      <c r="AA43" s="193" t="s">
         <v>21</v>
       </c>
-      <c r="AB43" s="121"/>
-      <c r="AC43" s="120"/>
-      <c r="AD43" s="121"/>
-      <c r="AE43" s="120" t="s">
+      <c r="AB43" s="194"/>
+      <c r="AC43" s="193"/>
+      <c r="AD43" s="194"/>
+      <c r="AE43" s="193" t="s">
         <v>21</v>
       </c>
-      <c r="AF43" s="121"/>
-      <c r="AG43" s="120"/>
-      <c r="AH43" s="121"/>
-      <c r="AI43" s="120"/>
-      <c r="AJ43" s="121"/>
-      <c r="AK43" s="145"/>
-      <c r="AL43" s="118"/>
-      <c r="AM43" s="118"/>
-      <c r="AN43" s="118"/>
-      <c r="AO43" s="118"/>
-      <c r="AP43" s="118"/>
-      <c r="AQ43" s="118"/>
-      <c r="AR43" s="118"/>
-      <c r="AS43" s="118"/>
-      <c r="AT43" s="119"/>
+      <c r="AF43" s="194"/>
+      <c r="AG43" s="193"/>
+      <c r="AH43" s="194"/>
+      <c r="AI43" s="193"/>
+      <c r="AJ43" s="194"/>
+      <c r="AK43" s="204"/>
+      <c r="AL43" s="205"/>
+      <c r="AM43" s="205"/>
+      <c r="AN43" s="205"/>
+      <c r="AO43" s="205"/>
+      <c r="AP43" s="205"/>
+      <c r="AQ43" s="205"/>
+      <c r="AR43" s="205"/>
+      <c r="AS43" s="205"/>
+      <c r="AT43" s="206"/>
     </row>
     <row r="44" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="134" t="s">
+      <c r="B44" s="199" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="135"/>
-      <c r="D44" s="135"/>
-      <c r="E44" s="135"/>
-      <c r="F44" s="136"/>
-      <c r="G44" s="120" t="s">
+      <c r="C44" s="200"/>
+      <c r="D44" s="200"/>
+      <c r="E44" s="200"/>
+      <c r="F44" s="201"/>
+      <c r="G44" s="193" t="s">
         <v>159</v>
       </c>
-      <c r="H44" s="137"/>
-      <c r="I44" s="137"/>
-      <c r="J44" s="137"/>
-      <c r="K44" s="137"/>
-      <c r="L44" s="137"/>
-      <c r="M44" s="137"/>
-      <c r="N44" s="121"/>
-      <c r="O44" s="276">
+      <c r="H44" s="202"/>
+      <c r="I44" s="202"/>
+      <c r="J44" s="202"/>
+      <c r="K44" s="202"/>
+      <c r="L44" s="202"/>
+      <c r="M44" s="202"/>
+      <c r="N44" s="194"/>
+      <c r="O44" s="203">
         <v>6</v>
       </c>
-      <c r="P44" s="137"/>
-      <c r="Q44" s="137"/>
-      <c r="R44" s="121"/>
-      <c r="S44" s="120"/>
-      <c r="T44" s="121"/>
-      <c r="U44" s="120"/>
-      <c r="V44" s="121"/>
-      <c r="W44" s="120" t="s">
+      <c r="P44" s="202"/>
+      <c r="Q44" s="202"/>
+      <c r="R44" s="194"/>
+      <c r="S44" s="193"/>
+      <c r="T44" s="194"/>
+      <c r="U44" s="193"/>
+      <c r="V44" s="194"/>
+      <c r="W44" s="193" t="s">
         <v>21</v>
       </c>
-      <c r="X44" s="121"/>
-      <c r="Y44" s="120"/>
-      <c r="Z44" s="121"/>
-      <c r="AA44" s="120"/>
-      <c r="AB44" s="121"/>
-      <c r="AC44" s="120" t="s">
+      <c r="X44" s="194"/>
+      <c r="Y44" s="193"/>
+      <c r="Z44" s="194"/>
+      <c r="AA44" s="193"/>
+      <c r="AB44" s="194"/>
+      <c r="AC44" s="193" t="s">
         <v>21</v>
       </c>
-      <c r="AD44" s="121"/>
-      <c r="AE44" s="120"/>
-      <c r="AF44" s="121"/>
-      <c r="AG44" s="120" t="s">
+      <c r="AD44" s="194"/>
+      <c r="AE44" s="193"/>
+      <c r="AF44" s="194"/>
+      <c r="AG44" s="193" t="s">
         <v>21</v>
       </c>
-      <c r="AH44" s="121"/>
-      <c r="AI44" s="120"/>
-      <c r="AJ44" s="121"/>
-      <c r="AK44" s="122"/>
-      <c r="AL44" s="123"/>
-      <c r="AM44" s="123"/>
-      <c r="AN44" s="123"/>
-      <c r="AO44" s="123"/>
-      <c r="AP44" s="123"/>
-      <c r="AQ44" s="123"/>
-      <c r="AR44" s="123"/>
-      <c r="AS44" s="123"/>
-      <c r="AT44" s="124"/>
+      <c r="AH44" s="194"/>
+      <c r="AI44" s="193"/>
+      <c r="AJ44" s="194"/>
+      <c r="AK44" s="214"/>
+      <c r="AL44" s="186"/>
+      <c r="AM44" s="186"/>
+      <c r="AN44" s="186"/>
+      <c r="AO44" s="186"/>
+      <c r="AP44" s="186"/>
+      <c r="AQ44" s="186"/>
+      <c r="AR44" s="186"/>
+      <c r="AS44" s="186"/>
+      <c r="AT44" s="215"/>
     </row>
     <row r="45" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="125"/>
-      <c r="C45" s="126"/>
-      <c r="D45" s="126"/>
-      <c r="E45" s="126"/>
-      <c r="F45" s="127"/>
-      <c r="G45" s="128"/>
-      <c r="H45" s="129"/>
-      <c r="I45" s="129"/>
-      <c r="J45" s="129"/>
-      <c r="K45" s="129"/>
-      <c r="L45" s="129"/>
-      <c r="M45" s="129"/>
-      <c r="N45" s="130"/>
-      <c r="O45" s="131"/>
-      <c r="P45" s="131"/>
-      <c r="Q45" s="131"/>
-      <c r="R45" s="131"/>
-      <c r="S45" s="131"/>
-      <c r="T45" s="131"/>
-      <c r="U45" s="131"/>
-      <c r="V45" s="131"/>
-      <c r="W45" s="131"/>
-      <c r="X45" s="131"/>
-      <c r="Y45" s="131"/>
-      <c r="Z45" s="131"/>
-      <c r="AA45" s="131"/>
-      <c r="AB45" s="131"/>
-      <c r="AC45" s="131"/>
-      <c r="AD45" s="131"/>
-      <c r="AE45" s="131"/>
-      <c r="AF45" s="131"/>
-      <c r="AG45" s="131"/>
-      <c r="AH45" s="131"/>
-      <c r="AI45" s="131"/>
-      <c r="AJ45" s="131"/>
-      <c r="AK45" s="132"/>
-      <c r="AL45" s="132"/>
-      <c r="AM45" s="132"/>
-      <c r="AN45" s="132"/>
-      <c r="AO45" s="132"/>
-      <c r="AP45" s="132"/>
-      <c r="AQ45" s="132"/>
-      <c r="AR45" s="132"/>
-      <c r="AS45" s="132"/>
-      <c r="AT45" s="133"/>
+      <c r="B45" s="216"/>
+      <c r="C45" s="217"/>
+      <c r="D45" s="217"/>
+      <c r="E45" s="217"/>
+      <c r="F45" s="218"/>
+      <c r="G45" s="219"/>
+      <c r="H45" s="220"/>
+      <c r="I45" s="220"/>
+      <c r="J45" s="220"/>
+      <c r="K45" s="220"/>
+      <c r="L45" s="220"/>
+      <c r="M45" s="220"/>
+      <c r="N45" s="221"/>
+      <c r="O45" s="222"/>
+      <c r="P45" s="222"/>
+      <c r="Q45" s="222"/>
+      <c r="R45" s="222"/>
+      <c r="S45" s="222"/>
+      <c r="T45" s="222"/>
+      <c r="U45" s="222"/>
+      <c r="V45" s="222"/>
+      <c r="W45" s="222"/>
+      <c r="X45" s="222"/>
+      <c r="Y45" s="222"/>
+      <c r="Z45" s="222"/>
+      <c r="AA45" s="222"/>
+      <c r="AB45" s="222"/>
+      <c r="AC45" s="222"/>
+      <c r="AD45" s="222"/>
+      <c r="AE45" s="222"/>
+      <c r="AF45" s="222"/>
+      <c r="AG45" s="222"/>
+      <c r="AH45" s="222"/>
+      <c r="AI45" s="222"/>
+      <c r="AJ45" s="222"/>
+      <c r="AK45" s="223"/>
+      <c r="AL45" s="223"/>
+      <c r="AM45" s="223"/>
+      <c r="AN45" s="223"/>
+      <c r="AO45" s="223"/>
+      <c r="AP45" s="223"/>
+      <c r="AQ45" s="223"/>
+      <c r="AR45" s="223"/>
+      <c r="AS45" s="223"/>
+      <c r="AT45" s="224"/>
     </row>
     <row r="46" spans="2:46" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="263"/>
-      <c r="C46" s="263"/>
-      <c r="D46" s="263"/>
-      <c r="E46" s="264"/>
-      <c r="F46" s="264"/>
-      <c r="G46" s="264"/>
-      <c r="H46" s="264"/>
-      <c r="I46" s="264"/>
-      <c r="J46" s="264"/>
-      <c r="K46" s="263"/>
-      <c r="L46" s="263"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="70"/>
+      <c r="H46" s="70"/>
+      <c r="I46" s="70"/>
+      <c r="J46" s="70"/>
+      <c r="K46" s="69"/>
+      <c r="L46" s="69"/>
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
       <c r="O46" s="60"/>
@@ -6182,19 +6211,19 @@
       <c r="AT46" s="30"/>
     </row>
     <row r="47" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="265" t="s">
+      <c r="B47" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="C47" s="263"/>
-      <c r="D47" s="263"/>
-      <c r="E47" s="266"/>
-      <c r="F47" s="267"/>
-      <c r="G47" s="267"/>
-      <c r="H47" s="267"/>
-      <c r="I47" s="263"/>
-      <c r="J47" s="267"/>
-      <c r="K47" s="263"/>
-      <c r="L47" s="263"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="73"/>
+      <c r="G47" s="73"/>
+      <c r="H47" s="73"/>
+      <c r="I47" s="69"/>
+      <c r="J47" s="73"/>
+      <c r="K47" s="69"/>
+      <c r="L47" s="69"/>
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
       <c r="O47" s="60"/>
@@ -6224,295 +6253,505 @@
       <c r="AT47" s="30"/>
     </row>
     <row r="48" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="104" t="s">
+      <c r="B48" s="237" t="s">
         <v>161</v>
       </c>
-      <c r="C48" s="105"/>
-      <c r="D48" s="105"/>
-      <c r="E48" s="105"/>
-      <c r="F48" s="105"/>
-      <c r="G48" s="106" t="s">
+      <c r="C48" s="89"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="89"/>
+      <c r="G48" s="238" t="s">
         <v>162</v>
       </c>
-      <c r="H48" s="106"/>
-      <c r="I48" s="106"/>
-      <c r="J48" s="106"/>
-      <c r="K48" s="106"/>
-      <c r="L48" s="106"/>
-      <c r="M48" s="106"/>
-      <c r="N48" s="106"/>
-      <c r="O48" s="106"/>
-      <c r="P48" s="106"/>
-      <c r="Q48" s="106"/>
-      <c r="R48" s="106"/>
-      <c r="S48" s="106"/>
-      <c r="T48" s="106"/>
-      <c r="U48" s="106"/>
-      <c r="V48" s="106"/>
-      <c r="W48" s="106"/>
-      <c r="X48" s="106"/>
-      <c r="Y48" s="106"/>
-      <c r="Z48" s="106"/>
-      <c r="AA48" s="106"/>
-      <c r="AB48" s="106"/>
-      <c r="AC48" s="106"/>
-      <c r="AD48" s="106"/>
-      <c r="AE48" s="105" t="s">
+      <c r="H48" s="238"/>
+      <c r="I48" s="238"/>
+      <c r="J48" s="238"/>
+      <c r="K48" s="238"/>
+      <c r="L48" s="238"/>
+      <c r="M48" s="238"/>
+      <c r="N48" s="238"/>
+      <c r="O48" s="238"/>
+      <c r="P48" s="238"/>
+      <c r="Q48" s="238"/>
+      <c r="R48" s="238"/>
+      <c r="S48" s="238"/>
+      <c r="T48" s="238"/>
+      <c r="U48" s="238"/>
+      <c r="V48" s="238"/>
+      <c r="W48" s="238"/>
+      <c r="X48" s="238"/>
+      <c r="Y48" s="238"/>
+      <c r="Z48" s="238"/>
+      <c r="AA48" s="238"/>
+      <c r="AB48" s="238"/>
+      <c r="AC48" s="238"/>
+      <c r="AD48" s="238"/>
+      <c r="AE48" s="89" t="s">
         <v>128</v>
       </c>
-      <c r="AF48" s="105"/>
-      <c r="AG48" s="105"/>
-      <c r="AH48" s="105"/>
-      <c r="AI48" s="105"/>
-      <c r="AJ48" s="105"/>
-      <c r="AK48" s="105"/>
-      <c r="AL48" s="105"/>
-      <c r="AM48" s="105"/>
-      <c r="AN48" s="105"/>
-      <c r="AO48" s="105"/>
-      <c r="AP48" s="105"/>
-      <c r="AQ48" s="105"/>
-      <c r="AR48" s="105"/>
-      <c r="AS48" s="105"/>
-      <c r="AT48" s="107"/>
+      <c r="AF48" s="89"/>
+      <c r="AG48" s="89"/>
+      <c r="AH48" s="89"/>
+      <c r="AI48" s="89"/>
+      <c r="AJ48" s="89"/>
+      <c r="AK48" s="89"/>
+      <c r="AL48" s="89"/>
+      <c r="AM48" s="89"/>
+      <c r="AN48" s="89"/>
+      <c r="AO48" s="89"/>
+      <c r="AP48" s="89"/>
+      <c r="AQ48" s="89"/>
+      <c r="AR48" s="89"/>
+      <c r="AS48" s="89"/>
+      <c r="AT48" s="239"/>
     </row>
     <row r="49" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="268">
+      <c r="B49" s="240">
         <v>44417</v>
       </c>
-      <c r="C49" s="108"/>
-      <c r="D49" s="108"/>
-      <c r="E49" s="108"/>
-      <c r="F49" s="108"/>
-      <c r="G49" s="109" t="s">
+      <c r="C49" s="241"/>
+      <c r="D49" s="241"/>
+      <c r="E49" s="241"/>
+      <c r="F49" s="241"/>
+      <c r="G49" s="242" t="s">
         <v>163</v>
       </c>
-      <c r="H49" s="110"/>
-      <c r="I49" s="110"/>
-      <c r="J49" s="110"/>
-      <c r="K49" s="110"/>
-      <c r="L49" s="110"/>
-      <c r="M49" s="110"/>
-      <c r="N49" s="110"/>
-      <c r="O49" s="110"/>
-      <c r="P49" s="110"/>
-      <c r="Q49" s="110"/>
-      <c r="R49" s="110"/>
-      <c r="S49" s="110"/>
-      <c r="T49" s="110"/>
-      <c r="U49" s="110"/>
-      <c r="V49" s="110"/>
-      <c r="W49" s="110"/>
-      <c r="X49" s="110"/>
-      <c r="Y49" s="110"/>
-      <c r="Z49" s="110"/>
-      <c r="AA49" s="110"/>
-      <c r="AB49" s="110"/>
-      <c r="AC49" s="110"/>
-      <c r="AD49" s="111"/>
-      <c r="AE49" s="112"/>
-      <c r="AF49" s="112"/>
-      <c r="AG49" s="112"/>
-      <c r="AH49" s="112"/>
-      <c r="AI49" s="112"/>
-      <c r="AJ49" s="112"/>
-      <c r="AK49" s="112"/>
-      <c r="AL49" s="112"/>
-      <c r="AM49" s="112"/>
-      <c r="AN49" s="112"/>
-      <c r="AO49" s="112"/>
-      <c r="AP49" s="112"/>
-      <c r="AQ49" s="112"/>
-      <c r="AR49" s="112"/>
-      <c r="AS49" s="112"/>
-      <c r="AT49" s="113"/>
+      <c r="H49" s="243"/>
+      <c r="I49" s="243"/>
+      <c r="J49" s="243"/>
+      <c r="K49" s="243"/>
+      <c r="L49" s="243"/>
+      <c r="M49" s="243"/>
+      <c r="N49" s="243"/>
+      <c r="O49" s="243"/>
+      <c r="P49" s="243"/>
+      <c r="Q49" s="243"/>
+      <c r="R49" s="243"/>
+      <c r="S49" s="243"/>
+      <c r="T49" s="243"/>
+      <c r="U49" s="243"/>
+      <c r="V49" s="243"/>
+      <c r="W49" s="243"/>
+      <c r="X49" s="243"/>
+      <c r="Y49" s="243"/>
+      <c r="Z49" s="243"/>
+      <c r="AA49" s="243"/>
+      <c r="AB49" s="243"/>
+      <c r="AC49" s="243"/>
+      <c r="AD49" s="244"/>
+      <c r="AE49" s="245"/>
+      <c r="AF49" s="245"/>
+      <c r="AG49" s="245"/>
+      <c r="AH49" s="245"/>
+      <c r="AI49" s="245"/>
+      <c r="AJ49" s="245"/>
+      <c r="AK49" s="245"/>
+      <c r="AL49" s="245"/>
+      <c r="AM49" s="245"/>
+      <c r="AN49" s="245"/>
+      <c r="AO49" s="245"/>
+      <c r="AP49" s="245"/>
+      <c r="AQ49" s="245"/>
+      <c r="AR49" s="245"/>
+      <c r="AS49" s="245"/>
+      <c r="AT49" s="246"/>
     </row>
     <row r="50" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="114"/>
-      <c r="C50" s="115"/>
-      <c r="D50" s="115"/>
-      <c r="E50" s="115"/>
-      <c r="F50" s="115"/>
-      <c r="G50" s="269"/>
-      <c r="H50" s="116"/>
-      <c r="I50" s="116"/>
-      <c r="J50" s="116"/>
-      <c r="K50" s="116"/>
-      <c r="L50" s="116"/>
-      <c r="M50" s="116"/>
-      <c r="N50" s="116"/>
-      <c r="O50" s="116"/>
-      <c r="P50" s="116"/>
-      <c r="Q50" s="116"/>
-      <c r="R50" s="116"/>
-      <c r="S50" s="116"/>
-      <c r="T50" s="116"/>
-      <c r="U50" s="116"/>
-      <c r="V50" s="116"/>
-      <c r="W50" s="116"/>
-      <c r="X50" s="116"/>
-      <c r="Y50" s="116"/>
-      <c r="Z50" s="116"/>
-      <c r="AA50" s="116"/>
-      <c r="AB50" s="116"/>
-      <c r="AC50" s="116"/>
-      <c r="AD50" s="117"/>
-      <c r="AE50" s="118"/>
-      <c r="AF50" s="118"/>
-      <c r="AG50" s="118"/>
-      <c r="AH50" s="118"/>
-      <c r="AI50" s="118"/>
-      <c r="AJ50" s="118"/>
-      <c r="AK50" s="118"/>
-      <c r="AL50" s="118"/>
-      <c r="AM50" s="118"/>
-      <c r="AN50" s="118"/>
-      <c r="AO50" s="118"/>
-      <c r="AP50" s="118"/>
-      <c r="AQ50" s="118"/>
-      <c r="AR50" s="118"/>
-      <c r="AS50" s="118"/>
-      <c r="AT50" s="119"/>
+      <c r="B50" s="247"/>
+      <c r="C50" s="248"/>
+      <c r="D50" s="248"/>
+      <c r="E50" s="248"/>
+      <c r="F50" s="248"/>
+      <c r="G50" s="211"/>
+      <c r="H50" s="212"/>
+      <c r="I50" s="212"/>
+      <c r="J50" s="212"/>
+      <c r="K50" s="212"/>
+      <c r="L50" s="212"/>
+      <c r="M50" s="212"/>
+      <c r="N50" s="212"/>
+      <c r="O50" s="212"/>
+      <c r="P50" s="212"/>
+      <c r="Q50" s="212"/>
+      <c r="R50" s="212"/>
+      <c r="S50" s="212"/>
+      <c r="T50" s="212"/>
+      <c r="U50" s="212"/>
+      <c r="V50" s="212"/>
+      <c r="W50" s="212"/>
+      <c r="X50" s="212"/>
+      <c r="Y50" s="212"/>
+      <c r="Z50" s="212"/>
+      <c r="AA50" s="212"/>
+      <c r="AB50" s="212"/>
+      <c r="AC50" s="212"/>
+      <c r="AD50" s="213"/>
+      <c r="AE50" s="205"/>
+      <c r="AF50" s="205"/>
+      <c r="AG50" s="205"/>
+      <c r="AH50" s="205"/>
+      <c r="AI50" s="205"/>
+      <c r="AJ50" s="205"/>
+      <c r="AK50" s="205"/>
+      <c r="AL50" s="205"/>
+      <c r="AM50" s="205"/>
+      <c r="AN50" s="205"/>
+      <c r="AO50" s="205"/>
+      <c r="AP50" s="205"/>
+      <c r="AQ50" s="205"/>
+      <c r="AR50" s="205"/>
+      <c r="AS50" s="205"/>
+      <c r="AT50" s="206"/>
     </row>
     <row r="51" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="92"/>
-      <c r="C51" s="93"/>
-      <c r="D51" s="93"/>
-      <c r="E51" s="93"/>
-      <c r="F51" s="93"/>
-      <c r="G51" s="94"/>
-      <c r="H51" s="95"/>
-      <c r="I51" s="95"/>
-      <c r="J51" s="95"/>
-      <c r="K51" s="95"/>
-      <c r="L51" s="95"/>
-      <c r="M51" s="95"/>
-      <c r="N51" s="95"/>
-      <c r="O51" s="95"/>
-      <c r="P51" s="95"/>
-      <c r="Q51" s="95"/>
-      <c r="R51" s="95"/>
-      <c r="S51" s="95"/>
-      <c r="T51" s="95"/>
-      <c r="U51" s="95"/>
-      <c r="V51" s="95"/>
-      <c r="W51" s="95"/>
-      <c r="X51" s="95"/>
-      <c r="Y51" s="95"/>
-      <c r="Z51" s="95"/>
-      <c r="AA51" s="95"/>
-      <c r="AB51" s="95"/>
-      <c r="AC51" s="95"/>
-      <c r="AD51" s="96"/>
-      <c r="AE51" s="95"/>
-      <c r="AF51" s="95"/>
-      <c r="AG51" s="95"/>
-      <c r="AH51" s="95"/>
-      <c r="AI51" s="95"/>
-      <c r="AJ51" s="95"/>
-      <c r="AK51" s="95"/>
-      <c r="AL51" s="95"/>
-      <c r="AM51" s="95"/>
-      <c r="AN51" s="95"/>
-      <c r="AO51" s="95"/>
-      <c r="AP51" s="95"/>
-      <c r="AQ51" s="95"/>
-      <c r="AR51" s="95"/>
-      <c r="AS51" s="95"/>
-      <c r="AT51" s="97"/>
+      <c r="B51" s="225"/>
+      <c r="C51" s="226"/>
+      <c r="D51" s="226"/>
+      <c r="E51" s="226"/>
+      <c r="F51" s="226"/>
+      <c r="G51" s="227"/>
+      <c r="H51" s="228"/>
+      <c r="I51" s="228"/>
+      <c r="J51" s="228"/>
+      <c r="K51" s="228"/>
+      <c r="L51" s="228"/>
+      <c r="M51" s="228"/>
+      <c r="N51" s="228"/>
+      <c r="O51" s="228"/>
+      <c r="P51" s="228"/>
+      <c r="Q51" s="228"/>
+      <c r="R51" s="228"/>
+      <c r="S51" s="228"/>
+      <c r="T51" s="228"/>
+      <c r="U51" s="228"/>
+      <c r="V51" s="228"/>
+      <c r="W51" s="228"/>
+      <c r="X51" s="228"/>
+      <c r="Y51" s="228"/>
+      <c r="Z51" s="228"/>
+      <c r="AA51" s="228"/>
+      <c r="AB51" s="228"/>
+      <c r="AC51" s="228"/>
+      <c r="AD51" s="229"/>
+      <c r="AE51" s="228"/>
+      <c r="AF51" s="228"/>
+      <c r="AG51" s="228"/>
+      <c r="AH51" s="228"/>
+      <c r="AI51" s="228"/>
+      <c r="AJ51" s="228"/>
+      <c r="AK51" s="228"/>
+      <c r="AL51" s="228"/>
+      <c r="AM51" s="228"/>
+      <c r="AN51" s="228"/>
+      <c r="AO51" s="228"/>
+      <c r="AP51" s="228"/>
+      <c r="AQ51" s="228"/>
+      <c r="AR51" s="228"/>
+      <c r="AS51" s="228"/>
+      <c r="AT51" s="230"/>
     </row>
     <row r="52" spans="2:46" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="92"/>
-      <c r="C52" s="93"/>
-      <c r="D52" s="93"/>
-      <c r="E52" s="93"/>
-      <c r="F52" s="93"/>
-      <c r="G52" s="94"/>
-      <c r="H52" s="95"/>
-      <c r="I52" s="95"/>
-      <c r="J52" s="95"/>
-      <c r="K52" s="95"/>
-      <c r="L52" s="95"/>
-      <c r="M52" s="95"/>
-      <c r="N52" s="95"/>
-      <c r="O52" s="95"/>
-      <c r="P52" s="95"/>
-      <c r="Q52" s="95"/>
-      <c r="R52" s="95"/>
-      <c r="S52" s="95"/>
-      <c r="T52" s="95"/>
-      <c r="U52" s="95"/>
-      <c r="V52" s="95"/>
-      <c r="W52" s="95"/>
-      <c r="X52" s="95"/>
-      <c r="Y52" s="95"/>
-      <c r="Z52" s="95"/>
-      <c r="AA52" s="95"/>
-      <c r="AB52" s="95"/>
-      <c r="AC52" s="95"/>
-      <c r="AD52" s="96"/>
-      <c r="AE52" s="95"/>
-      <c r="AF52" s="95"/>
-      <c r="AG52" s="95"/>
-      <c r="AH52" s="95"/>
-      <c r="AI52" s="95"/>
-      <c r="AJ52" s="95"/>
-      <c r="AK52" s="95"/>
-      <c r="AL52" s="95"/>
-      <c r="AM52" s="95"/>
-      <c r="AN52" s="95"/>
-      <c r="AO52" s="95"/>
-      <c r="AP52" s="95"/>
-      <c r="AQ52" s="95"/>
-      <c r="AR52" s="95"/>
-      <c r="AS52" s="95"/>
-      <c r="AT52" s="97"/>
+      <c r="B52" s="225"/>
+      <c r="C52" s="226"/>
+      <c r="D52" s="226"/>
+      <c r="E52" s="226"/>
+      <c r="F52" s="226"/>
+      <c r="G52" s="227"/>
+      <c r="H52" s="228"/>
+      <c r="I52" s="228"/>
+      <c r="J52" s="228"/>
+      <c r="K52" s="228"/>
+      <c r="L52" s="228"/>
+      <c r="M52" s="228"/>
+      <c r="N52" s="228"/>
+      <c r="O52" s="228"/>
+      <c r="P52" s="228"/>
+      <c r="Q52" s="228"/>
+      <c r="R52" s="228"/>
+      <c r="S52" s="228"/>
+      <c r="T52" s="228"/>
+      <c r="U52" s="228"/>
+      <c r="V52" s="228"/>
+      <c r="W52" s="228"/>
+      <c r="X52" s="228"/>
+      <c r="Y52" s="228"/>
+      <c r="Z52" s="228"/>
+      <c r="AA52" s="228"/>
+      <c r="AB52" s="228"/>
+      <c r="AC52" s="228"/>
+      <c r="AD52" s="229"/>
+      <c r="AE52" s="228"/>
+      <c r="AF52" s="228"/>
+      <c r="AG52" s="228"/>
+      <c r="AH52" s="228"/>
+      <c r="AI52" s="228"/>
+      <c r="AJ52" s="228"/>
+      <c r="AK52" s="228"/>
+      <c r="AL52" s="228"/>
+      <c r="AM52" s="228"/>
+      <c r="AN52" s="228"/>
+      <c r="AO52" s="228"/>
+      <c r="AP52" s="228"/>
+      <c r="AQ52" s="228"/>
+      <c r="AR52" s="228"/>
+      <c r="AS52" s="228"/>
+      <c r="AT52" s="230"/>
     </row>
   </sheetData>
   <mergeCells count="320">
-    <mergeCell ref="AN1:AQ1"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="R3:Y3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="R5:W5"/>
-    <mergeCell ref="B4:E5"/>
-    <mergeCell ref="O4:Q5"/>
-    <mergeCell ref="F4:N5"/>
-    <mergeCell ref="Z4:AT5"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="R6:AF6"/>
-    <mergeCell ref="AG6:AN6"/>
-    <mergeCell ref="AO6:AT6"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="R7:AF7"/>
-    <mergeCell ref="AG7:AN7"/>
-    <mergeCell ref="AO7:AT7"/>
-    <mergeCell ref="AL9:AM9"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AT9"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AL10:AM10"/>
-    <mergeCell ref="AS10:AT10"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AK9"/>
+    <mergeCell ref="B9:D11"/>
+    <mergeCell ref="B21:D22"/>
+    <mergeCell ref="B19:D20"/>
+    <mergeCell ref="AK40:AT41"/>
+    <mergeCell ref="B12:D18"/>
+    <mergeCell ref="B24:D28"/>
+    <mergeCell ref="B40:F41"/>
+    <mergeCell ref="G40:N41"/>
+    <mergeCell ref="O40:R41"/>
+    <mergeCell ref="AE41:AF41"/>
+    <mergeCell ref="AG41:AH41"/>
+    <mergeCell ref="AI41:AJ41"/>
+    <mergeCell ref="I35:N35"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="AG35:AS35"/>
+    <mergeCell ref="I36:N36"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="AG36:AS36"/>
+    <mergeCell ref="S40:X40"/>
+    <mergeCell ref="Y40:AD40"/>
+    <mergeCell ref="AE40:AJ40"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="I32:N32"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="G51:AD51"/>
+    <mergeCell ref="AE51:AT51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="G52:AD52"/>
+    <mergeCell ref="AE52:AT52"/>
+    <mergeCell ref="T33:T35"/>
+    <mergeCell ref="U33:U35"/>
+    <mergeCell ref="V33:V35"/>
+    <mergeCell ref="W33:W35"/>
+    <mergeCell ref="X33:X35"/>
+    <mergeCell ref="Y33:Y35"/>
+    <mergeCell ref="Z33:Z35"/>
+    <mergeCell ref="AA33:AA35"/>
+    <mergeCell ref="AB33:AB35"/>
+    <mergeCell ref="AC33:AC35"/>
+    <mergeCell ref="AD33:AD35"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="G48:AD48"/>
+    <mergeCell ref="AE48:AT48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="G49:AD49"/>
+    <mergeCell ref="AE49:AT49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="G50:AD50"/>
+    <mergeCell ref="AE50:AT50"/>
+    <mergeCell ref="AE44:AF44"/>
+    <mergeCell ref="AG44:AH44"/>
+    <mergeCell ref="AI44:AJ44"/>
+    <mergeCell ref="AK44:AT44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="G45:N45"/>
+    <mergeCell ref="O45:R45"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="U45:V45"/>
+    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="Y45:Z45"/>
+    <mergeCell ref="AA45:AB45"/>
+    <mergeCell ref="AC45:AD45"/>
+    <mergeCell ref="AE45:AF45"/>
+    <mergeCell ref="AG45:AH45"/>
+    <mergeCell ref="AI45:AJ45"/>
+    <mergeCell ref="AK45:AT45"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="G44:N44"/>
+    <mergeCell ref="O44:R44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="Y44:Z44"/>
+    <mergeCell ref="AA44:AB44"/>
+    <mergeCell ref="AC44:AD44"/>
+    <mergeCell ref="AE42:AF42"/>
+    <mergeCell ref="AG42:AH42"/>
+    <mergeCell ref="AI42:AJ42"/>
+    <mergeCell ref="AK42:AT42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="G43:N43"/>
+    <mergeCell ref="O43:R43"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="W43:X43"/>
+    <mergeCell ref="Y43:Z43"/>
+    <mergeCell ref="AA43:AB43"/>
+    <mergeCell ref="AC43:AD43"/>
+    <mergeCell ref="AE43:AF43"/>
+    <mergeCell ref="AG43:AH43"/>
+    <mergeCell ref="AI43:AJ43"/>
+    <mergeCell ref="AK43:AT43"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="G42:N42"/>
+    <mergeCell ref="O42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="AA42:AB42"/>
+    <mergeCell ref="AC42:AD42"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="Y41:Z41"/>
+    <mergeCell ref="AA41:AB41"/>
+    <mergeCell ref="AC41:AD41"/>
+    <mergeCell ref="T32:AD32"/>
+    <mergeCell ref="AG32:AS32"/>
+    <mergeCell ref="I33:N33"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="AG33:AS33"/>
+    <mergeCell ref="I34:N34"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="AG23:AK23"/>
+    <mergeCell ref="AL23:AM23"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AT23"/>
+    <mergeCell ref="F24:AS24"/>
+    <mergeCell ref="F25:AS25"/>
+    <mergeCell ref="F26:AS26"/>
+    <mergeCell ref="F27:AS27"/>
+    <mergeCell ref="F28:AS28"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="Z23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AL21:AM21"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AT21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:W22"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="Z22:AD22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG22:AK22"/>
+    <mergeCell ref="AL22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AT22"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:W21"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="Z21:AD21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AG21:AK21"/>
+    <mergeCell ref="AL19:AM19"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AT19"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:W20"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="Z20:AD20"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AG20:AK20"/>
+    <mergeCell ref="AL20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AT20"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:W19"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="Z19:AD19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AG19:AK19"/>
+    <mergeCell ref="AL17:AM17"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AT17"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:W18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="Z18:AD18"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AG18:AK18"/>
+    <mergeCell ref="AL18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AT18"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:W17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="Z17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AG17:AK17"/>
+    <mergeCell ref="AL15:AM15"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AT15"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:W16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="Z16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AG16:AK16"/>
+    <mergeCell ref="AL16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AT16"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:W15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AG15:AK15"/>
+    <mergeCell ref="AL13:AM13"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AT13"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:W14"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AG14:AK14"/>
+    <mergeCell ref="AL14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AT14"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:W13"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AG13:AK13"/>
     <mergeCell ref="AL11:AM11"/>
     <mergeCell ref="AN11:AR11"/>
     <mergeCell ref="AS11:AT11"/>
@@ -6537,259 +6776,49 @@
     <mergeCell ref="Z11:AD11"/>
     <mergeCell ref="AE11:AF11"/>
     <mergeCell ref="AG11:AK11"/>
-    <mergeCell ref="AL13:AM13"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AT13"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:W14"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="Z14:AD14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AG14:AK14"/>
-    <mergeCell ref="AL14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AT14"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:W13"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="Z13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AG13:AK13"/>
-    <mergeCell ref="AL15:AM15"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AT15"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:W16"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="Z16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AG16:AK16"/>
-    <mergeCell ref="AL16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AT16"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:W15"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="Z15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG15:AK15"/>
-    <mergeCell ref="AL17:AM17"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AT17"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:W18"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="Z18:AD18"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AG18:AK18"/>
-    <mergeCell ref="AL18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AT18"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:W17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="Z17:AD17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AG17:AK17"/>
-    <mergeCell ref="AL19:AM19"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AT19"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="S20:W20"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="Z20:AD20"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AG20:AK20"/>
-    <mergeCell ref="AL20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AT20"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S19:W19"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="Z19:AD19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AG19:AK19"/>
-    <mergeCell ref="AL21:AM21"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AT21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:W22"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="Z22:AD22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AG22:AK22"/>
-    <mergeCell ref="AL22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AT22"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:W21"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="Z21:AD21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AG21:AK21"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:W23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="Z23:AD23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="T32:AD32"/>
-    <mergeCell ref="AG32:AS32"/>
-    <mergeCell ref="I33:N33"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="AG33:AS33"/>
-    <mergeCell ref="I34:N34"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="AG23:AK23"/>
-    <mergeCell ref="AL23:AM23"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AT23"/>
-    <mergeCell ref="F24:AS24"/>
-    <mergeCell ref="F25:AS25"/>
-    <mergeCell ref="F26:AS26"/>
-    <mergeCell ref="F27:AS27"/>
-    <mergeCell ref="F28:AS28"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="AA42:AB42"/>
-    <mergeCell ref="AC42:AD42"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="Y41:Z41"/>
-    <mergeCell ref="AA41:AB41"/>
-    <mergeCell ref="AC41:AD41"/>
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="Y44:Z44"/>
-    <mergeCell ref="AA44:AB44"/>
-    <mergeCell ref="AC44:AD44"/>
-    <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="AG42:AH42"/>
-    <mergeCell ref="AI42:AJ42"/>
-    <mergeCell ref="AK42:AT42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="G43:N43"/>
-    <mergeCell ref="O43:R43"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="U43:V43"/>
-    <mergeCell ref="W43:X43"/>
-    <mergeCell ref="Y43:Z43"/>
-    <mergeCell ref="AA43:AB43"/>
-    <mergeCell ref="AC43:AD43"/>
-    <mergeCell ref="AE43:AF43"/>
-    <mergeCell ref="AG43:AH43"/>
-    <mergeCell ref="AI43:AJ43"/>
-    <mergeCell ref="AK43:AT43"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="G42:N42"/>
-    <mergeCell ref="O42:R42"/>
-    <mergeCell ref="G50:AD50"/>
-    <mergeCell ref="AE50:AT50"/>
-    <mergeCell ref="AE44:AF44"/>
-    <mergeCell ref="AG44:AH44"/>
-    <mergeCell ref="AI44:AJ44"/>
-    <mergeCell ref="AK44:AT44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="G45:N45"/>
-    <mergeCell ref="O45:R45"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="U45:V45"/>
-    <mergeCell ref="W45:X45"/>
-    <mergeCell ref="Y45:Z45"/>
-    <mergeCell ref="AA45:AB45"/>
-    <mergeCell ref="AC45:AD45"/>
-    <mergeCell ref="AE45:AF45"/>
-    <mergeCell ref="AG45:AH45"/>
-    <mergeCell ref="AI45:AJ45"/>
-    <mergeCell ref="AK45:AT45"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="G44:N44"/>
-    <mergeCell ref="O44:R44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="G51:AD51"/>
-    <mergeCell ref="AE51:AT51"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="G52:AD52"/>
-    <mergeCell ref="AE52:AT52"/>
-    <mergeCell ref="T33:T35"/>
-    <mergeCell ref="U33:U35"/>
-    <mergeCell ref="V33:V35"/>
-    <mergeCell ref="W33:W35"/>
-    <mergeCell ref="X33:X35"/>
-    <mergeCell ref="Y33:Y35"/>
-    <mergeCell ref="Z33:Z35"/>
-    <mergeCell ref="AA33:AA35"/>
-    <mergeCell ref="AB33:AB35"/>
-    <mergeCell ref="AC33:AC35"/>
-    <mergeCell ref="AD33:AD35"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="G48:AD48"/>
-    <mergeCell ref="AE48:AT48"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="G49:AD49"/>
-    <mergeCell ref="AE49:AT49"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B9:D11"/>
-    <mergeCell ref="B21:D22"/>
-    <mergeCell ref="B19:D20"/>
-    <mergeCell ref="AK40:AT41"/>
-    <mergeCell ref="B12:D18"/>
-    <mergeCell ref="B24:D28"/>
-    <mergeCell ref="B40:F41"/>
-    <mergeCell ref="G40:N41"/>
-    <mergeCell ref="O40:R41"/>
-    <mergeCell ref="AE41:AF41"/>
-    <mergeCell ref="AG41:AH41"/>
-    <mergeCell ref="AI41:AJ41"/>
-    <mergeCell ref="I35:N35"/>
-    <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="AG35:AS35"/>
-    <mergeCell ref="I36:N36"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="AG36:AS36"/>
-    <mergeCell ref="S40:X40"/>
-    <mergeCell ref="Y40:AD40"/>
-    <mergeCell ref="AE40:AJ40"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="I32:N32"/>
-    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="AL9:AM9"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AT9"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AL10:AM10"/>
+    <mergeCell ref="AS10:AT10"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AK9"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="R6:AF6"/>
+    <mergeCell ref="AG6:AN6"/>
+    <mergeCell ref="AO6:AT6"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="R7:AF7"/>
+    <mergeCell ref="AG7:AN7"/>
+    <mergeCell ref="AO7:AT7"/>
+    <mergeCell ref="AN1:AQ1"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="R3:Y3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="R5:W5"/>
+    <mergeCell ref="B4:E5"/>
+    <mergeCell ref="O4:Q5"/>
+    <mergeCell ref="F4:N5"/>
+    <mergeCell ref="Z4:AT5"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">
@@ -6806,8 +6835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D6"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -6824,7 +6853,7 @@
     <col min="22" max="22" width="5.36328125" style="61" customWidth="1"/>
     <col min="23" max="23" width="8.453125" style="61" customWidth="1"/>
     <col min="24" max="26" width="9" style="61"/>
-    <col min="27" max="16384" width="9" style="249"/>
+    <col min="27" max="16384" width="9" style="62"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.2">
@@ -6834,8 +6863,8 @@
       <c r="N1" s="1"/>
       <c r="O1" s="2"/>
       <c r="P1" s="3"/>
-      <c r="Q1" s="278"/>
-      <c r="R1" s="278"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
       <c r="S1" s="2"/>
       <c r="T1" s="3" t="s">
         <v>1</v>
@@ -6853,500 +6882,531 @@
       </c>
     </row>
     <row r="3" spans="2:20" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="279" t="s">
+      <c r="B3" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="280" t="s">
+      <c r="C3" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="281" t="s">
+      <c r="D3" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="282" t="s">
+      <c r="E3" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="283" t="s">
+      <c r="F3" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="284" t="s">
+      <c r="G3" s="80" t="s">
         <v>174</v>
       </c>
-      <c r="H3" s="285" t="s">
+      <c r="H3" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="285" t="s">
+      <c r="I3" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="285" t="s">
+      <c r="J3" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="285" t="s">
+      <c r="K3" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="285" t="s">
+      <c r="L3" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="285" t="s">
+      <c r="M3" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="285" t="s">
+      <c r="N3" s="81" t="s">
         <v>169</v>
       </c>
-      <c r="O3" s="285" t="s">
+      <c r="O3" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="285" t="s">
+      <c r="P3" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="285" t="s">
+      <c r="Q3" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="285" t="s">
+      <c r="R3" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="285" t="s">
+      <c r="S3" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="286" t="s">
+      <c r="T3" s="82" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:20" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="287">
+      <c r="B4" s="297">
         <v>1</v>
       </c>
-      <c r="C4" s="288" t="s">
+      <c r="C4" s="83" t="s">
         <v>176</v>
       </c>
-      <c r="D4" s="289" t="s">
+      <c r="D4" s="300" t="s">
         <v>177</v>
       </c>
-      <c r="E4" s="290" t="s">
+      <c r="E4" s="305" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="291" t="s">
+      <c r="F4" s="307" t="s">
         <v>178</v>
       </c>
-      <c r="G4" s="292" t="s">
-        <v>183</v>
-      </c>
-      <c r="H4" s="293"/>
-      <c r="I4" s="293"/>
-      <c r="J4" s="293"/>
-      <c r="K4" s="294"/>
-      <c r="L4" s="294"/>
-      <c r="N4" s="295" t="s">
+      <c r="G4" s="309" t="s">
+        <v>182</v>
+      </c>
+      <c r="H4" s="287"/>
+      <c r="I4" s="287"/>
+      <c r="J4" s="287"/>
+      <c r="K4" s="285"/>
+      <c r="L4" s="285"/>
+      <c r="N4" s="313" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="296" t="s">
+      <c r="O4" s="311" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="294"/>
-      <c r="Q4" s="296" t="s">
+      <c r="P4" s="285"/>
+      <c r="Q4" s="311" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="294"/>
-      <c r="S4" s="294"/>
-      <c r="T4" s="294"/>
+      <c r="R4" s="285"/>
+      <c r="S4" s="285"/>
+      <c r="T4" s="285"/>
     </row>
     <row r="5" spans="2:20" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="297"/>
-      <c r="C5" s="298" t="s">
+      <c r="B5" s="298"/>
+      <c r="C5" s="333" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="299"/>
-      <c r="E5" s="300"/>
-      <c r="F5" s="301"/>
-      <c r="G5" s="302"/>
-      <c r="H5" s="247"/>
-      <c r="I5" s="247"/>
-      <c r="J5" s="247"/>
-      <c r="K5" s="303"/>
-      <c r="L5" s="303"/>
-      <c r="N5" s="304"/>
-      <c r="O5" s="305"/>
-      <c r="P5" s="303"/>
-      <c r="Q5" s="305"/>
-      <c r="R5" s="303"/>
-      <c r="S5" s="303"/>
-      <c r="T5" s="303"/>
+      <c r="D5" s="301"/>
+      <c r="E5" s="306"/>
+      <c r="F5" s="308"/>
+      <c r="G5" s="310"/>
+      <c r="H5" s="288"/>
+      <c r="I5" s="288"/>
+      <c r="J5" s="288"/>
+      <c r="K5" s="286"/>
+      <c r="L5" s="286"/>
+      <c r="N5" s="295"/>
+      <c r="O5" s="312"/>
+      <c r="P5" s="286"/>
+      <c r="Q5" s="312"/>
+      <c r="R5" s="286"/>
+      <c r="S5" s="286"/>
+      <c r="T5" s="286"/>
     </row>
     <row r="6" spans="2:20" ht="47" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="306"/>
-      <c r="C6" s="307">
-        <v>45352</v>
-      </c>
-      <c r="D6" s="308"/>
-      <c r="E6" s="300"/>
-      <c r="F6" s="301"/>
-      <c r="G6" s="302"/>
-      <c r="H6" s="248"/>
-      <c r="I6" s="248"/>
-      <c r="J6" s="248"/>
-      <c r="K6" s="303"/>
-      <c r="L6" s="303"/>
-      <c r="N6" s="309"/>
-      <c r="O6" s="305"/>
-      <c r="P6" s="303"/>
-      <c r="Q6" s="305"/>
-      <c r="R6" s="303"/>
-      <c r="S6" s="303"/>
-      <c r="T6" s="303"/>
+      <c r="B6" s="299"/>
+      <c r="C6" s="334" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="302"/>
+      <c r="E6" s="306"/>
+      <c r="F6" s="308"/>
+      <c r="G6" s="310"/>
+      <c r="H6" s="289"/>
+      <c r="I6" s="289"/>
+      <c r="J6" s="289"/>
+      <c r="K6" s="286"/>
+      <c r="L6" s="286"/>
+      <c r="N6" s="296"/>
+      <c r="O6" s="312"/>
+      <c r="P6" s="286"/>
+      <c r="Q6" s="312"/>
+      <c r="R6" s="286"/>
+      <c r="S6" s="286"/>
+      <c r="T6" s="286"/>
     </row>
     <row r="7" spans="2:20" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="287">
+      <c r="B7" s="297">
         <v>2</v>
       </c>
-      <c r="C7" s="288" t="s">
+      <c r="C7" s="83" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="320" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" s="323" t="s">
+        <v>173</v>
+      </c>
+      <c r="F7" s="314" t="s">
+        <v>171</v>
+      </c>
+      <c r="G7" s="317" t="s">
         <v>181</v>
       </c>
-      <c r="D7" s="310" t="s">
-        <v>185</v>
-      </c>
-      <c r="E7" s="311" t="s">
-        <v>173</v>
-      </c>
-      <c r="F7" s="312" t="s">
-        <v>171</v>
-      </c>
-      <c r="G7" s="313" t="s">
-        <v>182</v>
-      </c>
-      <c r="H7" s="314"/>
-      <c r="I7" s="293"/>
-      <c r="J7" s="314"/>
-      <c r="K7" s="315"/>
-      <c r="L7" s="315"/>
-      <c r="M7" s="315"/>
-      <c r="N7" s="304" t="s">
+      <c r="H7" s="290"/>
+      <c r="I7" s="287"/>
+      <c r="J7" s="290"/>
+      <c r="K7" s="294"/>
+      <c r="L7" s="294"/>
+      <c r="M7" s="294"/>
+      <c r="N7" s="295" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="315" t="s">
+      <c r="O7" s="294" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="315" t="s">
+      <c r="P7" s="294" t="s">
         <v>21</v>
       </c>
-      <c r="Q7" s="315" t="s">
+      <c r="Q7" s="294" t="s">
         <v>21</v>
       </c>
-      <c r="R7" s="315" t="s">
+      <c r="R7" s="294" t="s">
         <v>21</v>
       </c>
-      <c r="S7" s="315" t="s">
+      <c r="S7" s="294" t="s">
         <v>21</v>
       </c>
-      <c r="T7" s="315" t="s">
+      <c r="T7" s="294" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:20" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="297"/>
-      <c r="C8" s="316" t="s">
+      <c r="B8" s="298"/>
+      <c r="C8" s="335" t="s">
         <v>175</v>
       </c>
-      <c r="D8" s="317"/>
-      <c r="E8" s="318"/>
-      <c r="F8" s="319"/>
-      <c r="G8" s="320"/>
-      <c r="H8" s="247"/>
-      <c r="I8" s="247"/>
-      <c r="J8" s="247"/>
-      <c r="K8" s="304"/>
-      <c r="L8" s="304"/>
-      <c r="M8" s="304"/>
-      <c r="N8" s="304"/>
-      <c r="O8" s="304"/>
-      <c r="P8" s="304"/>
-      <c r="Q8" s="304"/>
-      <c r="R8" s="304"/>
-      <c r="S8" s="304"/>
-      <c r="T8" s="304"/>
+      <c r="D8" s="321"/>
+      <c r="E8" s="324"/>
+      <c r="F8" s="315"/>
+      <c r="G8" s="318"/>
+      <c r="H8" s="288"/>
+      <c r="I8" s="288"/>
+      <c r="J8" s="288"/>
+      <c r="K8" s="295"/>
+      <c r="L8" s="295"/>
+      <c r="M8" s="295"/>
+      <c r="N8" s="295"/>
+      <c r="O8" s="295"/>
+      <c r="P8" s="295"/>
+      <c r="Q8" s="295"/>
+      <c r="R8" s="295"/>
+      <c r="S8" s="295"/>
+      <c r="T8" s="295"/>
     </row>
     <row r="9" spans="2:20" ht="47" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="306"/>
-      <c r="C9" s="336">
-        <v>45170</v>
-      </c>
-      <c r="D9" s="321"/>
-      <c r="E9" s="318"/>
-      <c r="F9" s="319"/>
-      <c r="G9" s="320"/>
-      <c r="H9" s="248"/>
-      <c r="I9" s="248"/>
-      <c r="J9" s="248"/>
-      <c r="K9" s="304"/>
-      <c r="L9" s="304"/>
-      <c r="M9" s="304"/>
-      <c r="N9" s="304"/>
-      <c r="O9" s="304"/>
-      <c r="P9" s="304"/>
-      <c r="Q9" s="304"/>
-      <c r="R9" s="304"/>
-      <c r="S9" s="304"/>
-      <c r="T9" s="304"/>
+      <c r="B9" s="299"/>
+      <c r="C9" s="336" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" s="322"/>
+      <c r="E9" s="324"/>
+      <c r="F9" s="315"/>
+      <c r="G9" s="318"/>
+      <c r="H9" s="289"/>
+      <c r="I9" s="289"/>
+      <c r="J9" s="289"/>
+      <c r="K9" s="295"/>
+      <c r="L9" s="295"/>
+      <c r="M9" s="295"/>
+      <c r="N9" s="295"/>
+      <c r="O9" s="295"/>
+      <c r="P9" s="295"/>
+      <c r="Q9" s="295"/>
+      <c r="R9" s="295"/>
+      <c r="S9" s="295"/>
+      <c r="T9" s="295"/>
     </row>
     <row r="10" spans="2:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="287">
+      <c r="B10" s="297">
         <v>3</v>
       </c>
-      <c r="C10" s="316">
-        <v>44621</v>
-      </c>
-      <c r="D10" s="322" t="s">
+      <c r="C10" s="335" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" s="326" t="s">
         <v>179</v>
       </c>
-      <c r="E10" s="323" t="s">
+      <c r="E10" s="291" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="324" t="s">
-        <v>184</v>
-      </c>
-      <c r="G10" s="325" t="s">
+      <c r="F10" s="331" t="s">
+        <v>183</v>
+      </c>
+      <c r="G10" s="332" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="326"/>
-      <c r="I10" s="326"/>
-      <c r="J10" s="326"/>
-      <c r="K10" s="326"/>
-      <c r="L10" s="326"/>
-      <c r="M10" s="326"/>
-      <c r="N10" s="326"/>
-      <c r="O10" s="326" t="s">
+      <c r="H10" s="330"/>
+      <c r="I10" s="330"/>
+      <c r="J10" s="330"/>
+      <c r="K10" s="330"/>
+      <c r="L10" s="330"/>
+      <c r="M10" s="330"/>
+      <c r="N10" s="330"/>
+      <c r="O10" s="330" t="s">
         <v>21</v>
       </c>
-      <c r="P10" s="326" t="s">
+      <c r="P10" s="330" t="s">
         <v>21</v>
       </c>
-      <c r="Q10" s="326" t="s">
+      <c r="Q10" s="330" t="s">
         <v>21</v>
       </c>
-      <c r="R10" s="326"/>
-      <c r="S10" s="326"/>
-      <c r="T10" s="326"/>
+      <c r="R10" s="330"/>
+      <c r="S10" s="330"/>
+      <c r="T10" s="330"/>
     </row>
     <row r="11" spans="2:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="297"/>
-      <c r="C11" s="316" t="s">
+      <c r="B11" s="298"/>
+      <c r="C11" s="335" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="328"/>
-      <c r="E11" s="329"/>
-      <c r="F11" s="319"/>
-      <c r="G11" s="320"/>
-      <c r="H11" s="304"/>
-      <c r="I11" s="304"/>
-      <c r="J11" s="304"/>
-      <c r="K11" s="304"/>
-      <c r="L11" s="304"/>
-      <c r="M11" s="304"/>
-      <c r="N11" s="304"/>
-      <c r="O11" s="304"/>
-      <c r="P11" s="304"/>
-      <c r="Q11" s="304"/>
-      <c r="R11" s="304"/>
-      <c r="S11" s="304"/>
-      <c r="T11" s="304"/>
+      <c r="D11" s="327"/>
+      <c r="E11" s="292"/>
+      <c r="F11" s="315"/>
+      <c r="G11" s="318"/>
+      <c r="H11" s="295"/>
+      <c r="I11" s="295"/>
+      <c r="J11" s="295"/>
+      <c r="K11" s="295"/>
+      <c r="L11" s="295"/>
+      <c r="M11" s="295"/>
+      <c r="N11" s="295"/>
+      <c r="O11" s="295"/>
+      <c r="P11" s="295"/>
+      <c r="Q11" s="295"/>
+      <c r="R11" s="295"/>
+      <c r="S11" s="295"/>
+      <c r="T11" s="295"/>
     </row>
     <row r="12" spans="2:20" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="306"/>
-      <c r="C12" s="316">
-        <v>44713</v>
-      </c>
-      <c r="D12" s="330"/>
-      <c r="E12" s="331"/>
-      <c r="F12" s="332"/>
-      <c r="G12" s="333"/>
-      <c r="H12" s="309"/>
-      <c r="I12" s="309"/>
-      <c r="J12" s="309"/>
-      <c r="K12" s="309"/>
-      <c r="L12" s="309"/>
-      <c r="M12" s="309"/>
-      <c r="N12" s="309"/>
-      <c r="O12" s="309"/>
-      <c r="P12" s="309"/>
-      <c r="Q12" s="309"/>
-      <c r="R12" s="309"/>
-      <c r="S12" s="309"/>
-      <c r="T12" s="309"/>
+      <c r="B12" s="299"/>
+      <c r="C12" s="335" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12" s="328"/>
+      <c r="E12" s="293"/>
+      <c r="F12" s="316"/>
+      <c r="G12" s="319"/>
+      <c r="H12" s="296"/>
+      <c r="I12" s="296"/>
+      <c r="J12" s="296"/>
+      <c r="K12" s="296"/>
+      <c r="L12" s="296"/>
+      <c r="M12" s="296"/>
+      <c r="N12" s="296"/>
+      <c r="O12" s="296"/>
+      <c r="P12" s="296"/>
+      <c r="Q12" s="296"/>
+      <c r="R12" s="296"/>
+      <c r="S12" s="296"/>
+      <c r="T12" s="296"/>
     </row>
     <row r="13" spans="2:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="287">
+      <c r="B13" s="297">
         <v>4</v>
       </c>
-      <c r="C13" s="334">
-        <v>44562</v>
-      </c>
-      <c r="D13" s="277" t="s">
+      <c r="C13" s="337" t="s">
+        <v>190</v>
+      </c>
+      <c r="D13" s="329" t="s">
         <v>180</v>
       </c>
-      <c r="E13" s="335" t="s">
+      <c r="E13" s="325" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="312" t="s">
+      <c r="F13" s="314" t="s">
         <v>170</v>
       </c>
-      <c r="G13" s="313"/>
-      <c r="H13" s="315"/>
-      <c r="I13" s="315"/>
-      <c r="J13" s="315"/>
-      <c r="K13" s="315"/>
-      <c r="L13" s="315"/>
-      <c r="M13" s="315"/>
-      <c r="N13" s="315"/>
-      <c r="O13" s="315" t="s">
+      <c r="G13" s="317"/>
+      <c r="H13" s="294"/>
+      <c r="I13" s="294"/>
+      <c r="J13" s="294"/>
+      <c r="K13" s="294"/>
+      <c r="L13" s="294"/>
+      <c r="M13" s="294"/>
+      <c r="N13" s="294"/>
+      <c r="O13" s="294" t="s">
         <v>21</v>
       </c>
-      <c r="P13" s="315" t="s">
+      <c r="P13" s="294" t="s">
         <v>21</v>
       </c>
-      <c r="Q13" s="315"/>
-      <c r="R13" s="315"/>
-      <c r="S13" s="315"/>
-      <c r="T13" s="315"/>
+      <c r="Q13" s="294"/>
+      <c r="R13" s="294"/>
+      <c r="S13" s="294"/>
+      <c r="T13" s="294"/>
     </row>
     <row r="14" spans="2:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="297"/>
-      <c r="C14" s="316" t="s">
+      <c r="B14" s="298"/>
+      <c r="C14" s="335" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="328"/>
-      <c r="E14" s="329"/>
-      <c r="F14" s="319"/>
-      <c r="G14" s="320"/>
-      <c r="H14" s="304"/>
-      <c r="I14" s="304"/>
-      <c r="J14" s="304"/>
-      <c r="K14" s="304"/>
-      <c r="L14" s="304"/>
-      <c r="M14" s="304"/>
-      <c r="N14" s="304"/>
-      <c r="O14" s="304"/>
-      <c r="P14" s="304"/>
-      <c r="Q14" s="304"/>
-      <c r="R14" s="304"/>
-      <c r="S14" s="304"/>
-      <c r="T14" s="304"/>
+      <c r="D14" s="327"/>
+      <c r="E14" s="292"/>
+      <c r="F14" s="315"/>
+      <c r="G14" s="318"/>
+      <c r="H14" s="295"/>
+      <c r="I14" s="295"/>
+      <c r="J14" s="295"/>
+      <c r="K14" s="295"/>
+      <c r="L14" s="295"/>
+      <c r="M14" s="295"/>
+      <c r="N14" s="295"/>
+      <c r="O14" s="295"/>
+      <c r="P14" s="295"/>
+      <c r="Q14" s="295"/>
+      <c r="R14" s="295"/>
+      <c r="S14" s="295"/>
+      <c r="T14" s="295"/>
     </row>
     <row r="15" spans="2:20" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="306"/>
-      <c r="C15" s="336">
-        <v>44621</v>
-      </c>
-      <c r="D15" s="330"/>
-      <c r="E15" s="331"/>
-      <c r="F15" s="332"/>
-      <c r="G15" s="333"/>
-      <c r="H15" s="309"/>
-      <c r="I15" s="309"/>
-      <c r="J15" s="309"/>
-      <c r="K15" s="309"/>
-      <c r="L15" s="309"/>
-      <c r="M15" s="309"/>
-      <c r="N15" s="309"/>
-      <c r="O15" s="309"/>
-      <c r="P15" s="309"/>
-      <c r="Q15" s="309"/>
-      <c r="R15" s="309"/>
-      <c r="S15" s="309"/>
-      <c r="T15" s="309"/>
+      <c r="B15" s="299"/>
+      <c r="C15" s="336" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" s="328"/>
+      <c r="E15" s="293"/>
+      <c r="F15" s="316"/>
+      <c r="G15" s="319"/>
+      <c r="H15" s="296"/>
+      <c r="I15" s="296"/>
+      <c r="J15" s="296"/>
+      <c r="K15" s="296"/>
+      <c r="L15" s="296"/>
+      <c r="M15" s="296"/>
+      <c r="N15" s="296"/>
+      <c r="O15" s="296"/>
+      <c r="P15" s="296"/>
+      <c r="Q15" s="296"/>
+      <c r="R15" s="296"/>
+      <c r="S15" s="296"/>
+      <c r="T15" s="296"/>
     </row>
     <row r="16" spans="2:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="287">
+      <c r="B16" s="297">
         <v>5</v>
       </c>
-      <c r="C16" s="334">
-        <v>44378</v>
-      </c>
-      <c r="D16" s="277" t="s">
+      <c r="C16" s="337" t="s">
+        <v>191</v>
+      </c>
+      <c r="D16" s="329" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="335" t="s">
+      <c r="E16" s="325" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="312" t="s">
+      <c r="F16" s="314" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="313"/>
-      <c r="H16" s="315"/>
-      <c r="I16" s="315"/>
-      <c r="J16" s="315"/>
-      <c r="K16" s="315"/>
-      <c r="L16" s="315"/>
-      <c r="M16" s="315"/>
-      <c r="N16" s="315"/>
-      <c r="O16" s="315" t="s">
+      <c r="G16" s="317"/>
+      <c r="H16" s="294"/>
+      <c r="I16" s="294"/>
+      <c r="J16" s="294"/>
+      <c r="K16" s="294"/>
+      <c r="L16" s="294"/>
+      <c r="M16" s="294"/>
+      <c r="N16" s="294"/>
+      <c r="O16" s="294" t="s">
         <v>21</v>
       </c>
-      <c r="P16" s="315" t="s">
+      <c r="P16" s="294" t="s">
         <v>21</v>
       </c>
-      <c r="Q16" s="315"/>
-      <c r="R16" s="315"/>
-      <c r="S16" s="315"/>
-      <c r="T16" s="315"/>
+      <c r="Q16" s="294"/>
+      <c r="R16" s="294"/>
+      <c r="S16" s="294"/>
+      <c r="T16" s="294"/>
     </row>
     <row r="17" spans="2:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="327"/>
-      <c r="C17" s="316" t="s">
+      <c r="B17" s="303"/>
+      <c r="C17" s="335" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="328"/>
-      <c r="E17" s="329"/>
-      <c r="F17" s="319"/>
-      <c r="G17" s="320"/>
-      <c r="H17" s="304"/>
-      <c r="I17" s="304"/>
-      <c r="J17" s="304"/>
-      <c r="K17" s="304"/>
-      <c r="L17" s="304"/>
-      <c r="M17" s="304"/>
-      <c r="N17" s="304"/>
-      <c r="O17" s="304"/>
-      <c r="P17" s="304"/>
-      <c r="Q17" s="304"/>
-      <c r="R17" s="304"/>
-      <c r="S17" s="304"/>
-      <c r="T17" s="304"/>
+      <c r="D17" s="327"/>
+      <c r="E17" s="292"/>
+      <c r="F17" s="315"/>
+      <c r="G17" s="318"/>
+      <c r="H17" s="295"/>
+      <c r="I17" s="295"/>
+      <c r="J17" s="295"/>
+      <c r="K17" s="295"/>
+      <c r="L17" s="295"/>
+      <c r="M17" s="295"/>
+      <c r="N17" s="295"/>
+      <c r="O17" s="295"/>
+      <c r="P17" s="295"/>
+      <c r="Q17" s="295"/>
+      <c r="R17" s="295"/>
+      <c r="S17" s="295"/>
+      <c r="T17" s="295"/>
     </row>
     <row r="18" spans="2:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="337"/>
-      <c r="C18" s="336">
-        <v>44562</v>
-      </c>
-      <c r="D18" s="330"/>
-      <c r="E18" s="331"/>
-      <c r="F18" s="332"/>
-      <c r="G18" s="333"/>
-      <c r="H18" s="309"/>
-      <c r="I18" s="309"/>
-      <c r="J18" s="309"/>
-      <c r="K18" s="309"/>
-      <c r="L18" s="309"/>
-      <c r="M18" s="309"/>
-      <c r="N18" s="309"/>
-      <c r="O18" s="309"/>
-      <c r="P18" s="309"/>
-      <c r="Q18" s="309"/>
-      <c r="R18" s="309"/>
-      <c r="S18" s="309"/>
-      <c r="T18" s="309"/>
+      <c r="B18" s="304"/>
+      <c r="C18" s="336" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" s="328"/>
+      <c r="E18" s="293"/>
+      <c r="F18" s="316"/>
+      <c r="G18" s="319"/>
+      <c r="H18" s="296"/>
+      <c r="I18" s="296"/>
+      <c r="J18" s="296"/>
+      <c r="K18" s="296"/>
+      <c r="L18" s="296"/>
+      <c r="M18" s="296"/>
+      <c r="N18" s="296"/>
+      <c r="O18" s="296"/>
+      <c r="P18" s="296"/>
+      <c r="Q18" s="296"/>
+      <c r="R18" s="296"/>
+      <c r="S18" s="296"/>
+      <c r="T18" s="296"/>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="O16:O18"/>
-    <mergeCell ref="P16:P18"/>
-    <mergeCell ref="Q16:Q18"/>
-    <mergeCell ref="R16:R18"/>
+    <mergeCell ref="T10:T12"/>
+    <mergeCell ref="T13:T15"/>
+    <mergeCell ref="R7:R9"/>
+    <mergeCell ref="R10:R12"/>
+    <mergeCell ref="R13:R15"/>
+    <mergeCell ref="S7:S9"/>
+    <mergeCell ref="S10:S12"/>
+    <mergeCell ref="S13:S15"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="N13:N15"/>
+    <mergeCell ref="O7:O9"/>
+    <mergeCell ref="O10:O12"/>
+    <mergeCell ref="O13:O15"/>
+    <mergeCell ref="P10:P12"/>
+    <mergeCell ref="P13:P15"/>
+    <mergeCell ref="Q7:Q9"/>
+    <mergeCell ref="Q10:Q12"/>
+    <mergeCell ref="Q13:Q15"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="M13:M15"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D15"/>
     <mergeCell ref="S16:S18"/>
     <mergeCell ref="T16:T18"/>
     <mergeCell ref="B4:B6"/>
@@ -7363,8 +7423,11 @@
     <mergeCell ref="N4:N6"/>
     <mergeCell ref="O4:O6"/>
     <mergeCell ref="P4:P6"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="O16:O18"/>
+    <mergeCell ref="P16:P18"/>
+    <mergeCell ref="Q16:Q18"/>
+    <mergeCell ref="R16:R18"/>
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="G16:G18"/>
     <mergeCell ref="H16:H18"/>
@@ -7374,56 +7437,22 @@
     <mergeCell ref="L16:L18"/>
     <mergeCell ref="M16:M18"/>
     <mergeCell ref="N16:N18"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="L7:L9"/>
     <mergeCell ref="L10:L12"/>
     <mergeCell ref="L13:L15"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="L7:L9"/>
     <mergeCell ref="M7:M9"/>
-    <mergeCell ref="M10:M12"/>
-    <mergeCell ref="M13:M15"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="K13:K15"/>
     <mergeCell ref="P7:P9"/>
-    <mergeCell ref="P10:P12"/>
-    <mergeCell ref="P13:P15"/>
-    <mergeCell ref="Q7:Q9"/>
-    <mergeCell ref="Q10:Q12"/>
-    <mergeCell ref="Q13:Q15"/>
     <mergeCell ref="N7:N9"/>
-    <mergeCell ref="N10:N12"/>
-    <mergeCell ref="N13:N15"/>
-    <mergeCell ref="O7:O9"/>
-    <mergeCell ref="O10:O12"/>
-    <mergeCell ref="O13:O15"/>
     <mergeCell ref="T7:T9"/>
-    <mergeCell ref="T10:T12"/>
-    <mergeCell ref="T13:T15"/>
-    <mergeCell ref="R7:R9"/>
-    <mergeCell ref="R10:R12"/>
-    <mergeCell ref="R13:R15"/>
-    <mergeCell ref="S7:S9"/>
-    <mergeCell ref="S10:S12"/>
-    <mergeCell ref="S13:S15"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">
